--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
   <si>
     <t xml:space="preserve">iso2</t>
   </si>
@@ -26,13 +26,544 @@
     <t xml:space="preserve">n_publishers</t>
   </si>
   <si>
+    <t xml:space="preserve">US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORTH_AMERICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATIN_AMERICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUROPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCEANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFRICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Taipei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">AFRICA</t>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo, Democratic Republic of the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
     <t xml:space="preserve">AQ</t>
@@ -44,13 +575,370 @@
     <t xml:space="preserve">ANTARCTICA</t>
   </si>
   <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Guiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Türkiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
     <t xml:space="preserve">AD</t>
   </si>
   <si>
     <t xml:space="preserve">Andorra</t>
   </si>
   <si>
-    <t xml:space="preserve">EUROPE</t>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faroe Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine, State of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Barthélemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallis and Futuna</t>
   </si>
   <si>
     <t xml:space="preserve">AF</t>
@@ -59,9 +947,6 @@
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
-    <t xml:space="preserve">ASIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">AX</t>
   </si>
   <si>
@@ -86,22 +971,574 @@
     <t xml:space="preserve">American Samoa</t>
   </si>
   <si>
-    <t xml:space="preserve">OCEANIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">AI</t>
   </si>
   <si>
     <t xml:space="preserve">Anguilla</t>
   </si>
   <si>
-    <t xml:space="preserve">LATIN_AMERICA</t>
-  </si>
-  <si>
     <t xml:space="preserve">AG</t>
   </si>
   <si>
     <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouvet Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei Darussalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayman Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmas Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curaçao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Polynesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Southern Territories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibraltar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadeloupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guernsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy See</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isle of Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jersey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea (Democratic People’s Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao People’s Democratic Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova, Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norfolk Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitcairn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokelau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
   </si>
 </sst>
 </file>
@@ -458,7 +1895,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -497,38 +1934,38 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +1976,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -553,37 +1990,3383 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
         <v>27</v>
       </c>
-      <c r="D11" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" t="s">
+        <v>228</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>239</v>
+      </c>
+      <c r="B116" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>241</v>
+      </c>
+      <c r="B117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>247</v>
+      </c>
+      <c r="B120" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>249</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>251</v>
+      </c>
+      <c r="B122" t="s">
+        <v>252</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>253</v>
+      </c>
+      <c r="B123" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>259</v>
+      </c>
+      <c r="B126" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>265</v>
+      </c>
+      <c r="B129" t="s">
+        <v>266</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>269</v>
+      </c>
+      <c r="B131" t="s">
+        <v>270</v>
+      </c>
+      <c r="C131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>275</v>
+      </c>
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>277</v>
+      </c>
+      <c r="B135" t="s">
+        <v>278</v>
+      </c>
+      <c r="C135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>279</v>
+      </c>
+      <c r="B136" t="s">
+        <v>280</v>
+      </c>
+      <c r="C136" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>281</v>
+      </c>
+      <c r="B137" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>283</v>
+      </c>
+      <c r="B138" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139" t="s">
+        <v>286</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>287</v>
+      </c>
+      <c r="B140" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>289</v>
+      </c>
+      <c r="B141" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>291</v>
+      </c>
+      <c r="B142" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>293</v>
+      </c>
+      <c r="B143" t="s">
+        <v>294</v>
+      </c>
+      <c r="C143" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" t="s">
+        <v>296</v>
+      </c>
+      <c r="C144" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>299</v>
+      </c>
+      <c r="B146" t="s">
+        <v>300</v>
+      </c>
+      <c r="C146" t="s">
+        <v>38</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>301</v>
+      </c>
+      <c r="B147" t="s">
+        <v>302</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" t="s">
+        <v>304</v>
+      </c>
+      <c r="C148" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>305</v>
+      </c>
+      <c r="B149" t="s">
+        <v>306</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s">
+        <v>308</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>309</v>
+      </c>
+      <c r="B151" t="s">
+        <v>310</v>
+      </c>
+      <c r="C151" t="s">
+        <v>38</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" t="s">
+        <v>312</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s">
+        <v>314</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>315</v>
+      </c>
+      <c r="B154" t="s">
+        <v>316</v>
+      </c>
+      <c r="C154" t="s">
+        <v>45</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>317</v>
+      </c>
+      <c r="B155" t="s">
+        <v>318</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>319</v>
+      </c>
+      <c r="B156" t="s">
+        <v>320</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>321</v>
+      </c>
+      <c r="B157" t="s">
+        <v>322</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>323</v>
+      </c>
+      <c r="B158" t="s">
+        <v>324</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>325</v>
+      </c>
+      <c r="B159" t="s">
+        <v>326</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>327</v>
+      </c>
+      <c r="B160" t="s">
+        <v>328</v>
+      </c>
+      <c r="C160" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>329</v>
+      </c>
+      <c r="B161" t="s">
+        <v>330</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>331</v>
+      </c>
+      <c r="B162" t="s">
+        <v>332</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>333</v>
+      </c>
+      <c r="B163" t="s">
+        <v>334</v>
+      </c>
+      <c r="C163" t="s">
+        <v>186</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>335</v>
+      </c>
+      <c r="B164" t="s">
+        <v>336</v>
+      </c>
+      <c r="C164" t="s">
+        <v>38</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>337</v>
+      </c>
+      <c r="B165" t="s">
+        <v>338</v>
+      </c>
+      <c r="C165" t="s">
+        <v>38</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" t="s">
+        <v>340</v>
+      </c>
+      <c r="C166" t="s">
+        <v>45</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>341</v>
+      </c>
+      <c r="B167" t="s">
+        <v>342</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>343</v>
+      </c>
+      <c r="B168" t="s">
+        <v>344</v>
+      </c>
+      <c r="C168" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>345</v>
+      </c>
+      <c r="B169" t="s">
+        <v>346</v>
+      </c>
+      <c r="C169" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>347</v>
+      </c>
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" t="s">
+        <v>38</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>349</v>
+      </c>
+      <c r="B171" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" t="s">
+        <v>38</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>351</v>
+      </c>
+      <c r="B172" t="s">
+        <v>352</v>
+      </c>
+      <c r="C172" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>353</v>
+      </c>
+      <c r="B173" t="s">
+        <v>354</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>355</v>
+      </c>
+      <c r="B174" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>357</v>
+      </c>
+      <c r="B175" t="s">
+        <v>358</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>359</v>
+      </c>
+      <c r="B176" t="s">
+        <v>360</v>
+      </c>
+      <c r="C176" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>361</v>
+      </c>
+      <c r="B177" t="s">
+        <v>362</v>
+      </c>
+      <c r="C177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>363</v>
+      </c>
+      <c r="B178" t="s">
+        <v>364</v>
+      </c>
+      <c r="C178" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>365</v>
+      </c>
+      <c r="B179" t="s">
+        <v>366</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>367</v>
+      </c>
+      <c r="B180" t="s">
+        <v>368</v>
+      </c>
+      <c r="C180" t="s">
+        <v>45</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>369</v>
+      </c>
+      <c r="B181" t="s">
+        <v>370</v>
+      </c>
+      <c r="C181" t="s">
+        <v>45</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>371</v>
+      </c>
+      <c r="B182" t="s">
+        <v>372</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>373</v>
+      </c>
+      <c r="B183" t="s">
+        <v>374</v>
+      </c>
+      <c r="C183" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>375</v>
+      </c>
+      <c r="B184" t="s">
+        <v>376</v>
+      </c>
+      <c r="C184" t="s">
+        <v>186</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>377</v>
+      </c>
+      <c r="B185" t="s">
+        <v>378</v>
+      </c>
+      <c r="C185" t="s">
+        <v>45</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>379</v>
+      </c>
+      <c r="B186" t="s">
+        <v>380</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" t="s">
+        <v>382</v>
+      </c>
+      <c r="C187" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>383</v>
+      </c>
+      <c r="B188" t="s">
+        <v>384</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>385</v>
+      </c>
+      <c r="B189" t="s">
+        <v>386</v>
+      </c>
+      <c r="C189" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>387</v>
+      </c>
+      <c r="B190" t="s">
+        <v>388</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>389</v>
+      </c>
+      <c r="B191" t="s">
+        <v>390</v>
+      </c>
+      <c r="C191" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>391</v>
+      </c>
+      <c r="B192" t="s">
+        <v>392</v>
+      </c>
+      <c r="C192" t="s">
+        <v>186</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>393</v>
+      </c>
+      <c r="B193" t="s">
+        <v>394</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>395</v>
+      </c>
+      <c r="B194" t="s">
+        <v>396</v>
+      </c>
+      <c r="C194" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>397</v>
+      </c>
+      <c r="B195" t="s">
+        <v>398</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>399</v>
+      </c>
+      <c r="B196" t="s">
+        <v>400</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>401</v>
+      </c>
+      <c r="B197" t="s">
+        <v>402</v>
+      </c>
+      <c r="C197" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>403</v>
+      </c>
+      <c r="B198" t="s">
+        <v>404</v>
+      </c>
+      <c r="C198" t="s">
+        <v>38</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>405</v>
+      </c>
+      <c r="B199" t="s">
+        <v>406</v>
+      </c>
+      <c r="C199" t="s">
+        <v>38</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>407</v>
+      </c>
+      <c r="B200" t="s">
+        <v>408</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>409</v>
+      </c>
+      <c r="B201" t="s">
+        <v>410</v>
+      </c>
+      <c r="C201" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>411</v>
+      </c>
+      <c r="B202" t="s">
+        <v>412</v>
+      </c>
+      <c r="C202" t="s">
+        <v>45</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>413</v>
+      </c>
+      <c r="B203" t="s">
+        <v>414</v>
+      </c>
+      <c r="C203" t="s">
+        <v>45</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>415</v>
+      </c>
+      <c r="B204" t="s">
+        <v>416</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>417</v>
+      </c>
+      <c r="B205" t="s">
+        <v>418</v>
+      </c>
+      <c r="C205" t="s">
+        <v>38</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>419</v>
+      </c>
+      <c r="B206" t="s">
+        <v>420</v>
+      </c>
+      <c r="C206" t="s">
+        <v>38</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>421</v>
+      </c>
+      <c r="B207" t="s">
+        <v>422</v>
+      </c>
+      <c r="C207" t="s">
+        <v>45</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>423</v>
+      </c>
+      <c r="B208" t="s">
+        <v>424</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>425</v>
+      </c>
+      <c r="B209" t="s">
+        <v>426</v>
+      </c>
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>427</v>
+      </c>
+      <c r="B210" t="s">
+        <v>428</v>
+      </c>
+      <c r="C210" t="s">
+        <v>45</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>429</v>
+      </c>
+      <c r="B211" t="s">
+        <v>430</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>431</v>
+      </c>
+      <c r="B212" t="s">
+        <v>432</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>433</v>
+      </c>
+      <c r="B213" t="s">
+        <v>434</v>
+      </c>
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>435</v>
+      </c>
+      <c r="B214" t="s">
+        <v>436</v>
+      </c>
+      <c r="C214" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>437</v>
+      </c>
+      <c r="B215" t="s">
+        <v>438</v>
+      </c>
+      <c r="C215" t="s">
+        <v>38</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>439</v>
+      </c>
+      <c r="B216" t="s">
+        <v>440</v>
+      </c>
+      <c r="C216" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>441</v>
+      </c>
+      <c r="B217" t="s">
+        <v>442</v>
+      </c>
+      <c r="C217" t="s">
+        <v>19</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>443</v>
+      </c>
+      <c r="B218" t="s">
+        <v>444</v>
+      </c>
+      <c r="C218" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>445</v>
+      </c>
+      <c r="B219" t="s">
+        <v>446</v>
+      </c>
+      <c r="C219" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>447</v>
+      </c>
+      <c r="B220" t="s">
+        <v>448</v>
+      </c>
+      <c r="C220" t="s">
+        <v>38</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>449</v>
+      </c>
+      <c r="B221" t="s">
+        <v>450</v>
+      </c>
+      <c r="C221" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>451</v>
+      </c>
+      <c r="B222" t="s">
+        <v>452</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>453</v>
+      </c>
+      <c r="B223" t="s">
+        <v>454</v>
+      </c>
+      <c r="C223" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>455</v>
+      </c>
+      <c r="B224" t="s">
+        <v>456</v>
+      </c>
+      <c r="C224" t="s">
+        <v>38</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>457</v>
+      </c>
+      <c r="B225" t="s">
+        <v>458</v>
+      </c>
+      <c r="C225" t="s">
+        <v>45</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>459</v>
+      </c>
+      <c r="B226" t="s">
+        <v>460</v>
+      </c>
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>461</v>
+      </c>
+      <c r="B227" t="s">
+        <v>462</v>
+      </c>
+      <c r="C227" t="s">
+        <v>45</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>463</v>
+      </c>
+      <c r="B228" t="s">
+        <v>464</v>
+      </c>
+      <c r="C228" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>465</v>
+      </c>
+      <c r="B229" t="s">
+        <v>466</v>
+      </c>
+      <c r="C229" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>467</v>
+      </c>
+      <c r="B230" t="s">
+        <v>468</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>469</v>
+      </c>
+      <c r="B231" t="s">
+        <v>470</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>471</v>
+      </c>
+      <c r="B232" t="s">
+        <v>472</v>
+      </c>
+      <c r="C232" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>473</v>
+      </c>
+      <c r="B233" t="s">
+        <v>474</v>
+      </c>
+      <c r="C233" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>475</v>
+      </c>
+      <c r="B234" t="s">
+        <v>476</v>
+      </c>
+      <c r="C234" t="s">
+        <v>38</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>477</v>
+      </c>
+      <c r="B235" t="s">
+        <v>478</v>
+      </c>
+      <c r="C235" t="s">
+        <v>45</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>479</v>
+      </c>
+      <c r="B236" t="s">
+        <v>480</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>481</v>
+      </c>
+      <c r="B237" t="s">
+        <v>482</v>
+      </c>
+      <c r="C237" t="s">
+        <v>186</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>483</v>
+      </c>
+      <c r="B238" t="s">
+        <v>484</v>
+      </c>
+      <c r="C238" t="s">
+        <v>45</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>485</v>
+      </c>
+      <c r="B239" t="s">
+        <v>486</v>
+      </c>
+      <c r="C239" t="s">
+        <v>45</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>487</v>
+      </c>
+      <c r="B240" t="s">
+        <v>488</v>
+      </c>
+      <c r="C240" t="s">
+        <v>38</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>489</v>
+      </c>
+      <c r="B241" t="s">
+        <v>490</v>
+      </c>
+      <c r="C241" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>491</v>
+      </c>
+      <c r="B242" t="s">
+        <v>492</v>
+      </c>
+      <c r="C242" t="s">
+        <v>45</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>493</v>
+      </c>
+      <c r="B243" t="s">
+        <v>494</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>495</v>
+      </c>
+      <c r="B244" t="s">
+        <v>496</v>
+      </c>
+      <c r="C244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>497</v>
+      </c>
+      <c r="B245" t="s">
+        <v>498</v>
+      </c>
+      <c r="C245" t="s">
+        <v>38</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>499</v>
+      </c>
+      <c r="B246" t="s">
+        <v>500</v>
+      </c>
+      <c r="C246" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>501</v>
+      </c>
+      <c r="B247" t="s">
+        <v>502</v>
+      </c>
+      <c r="C247" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>503</v>
+      </c>
+      <c r="B248" t="s">
+        <v>504</v>
+      </c>
+      <c r="C248" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>505</v>
+      </c>
+      <c r="B249" t="s">
+        <v>506</v>
+      </c>
+      <c r="C249" t="s">
+        <v>45</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>507</v>
+      </c>
+      <c r="B250" t="s">
+        <v>508</v>
+      </c>
+      <c r="C250" t="s">
+        <v>38</v>
+      </c>
+      <c r="D250" t="n">
         <v>0</v>
       </c>
     </row>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="511">
   <si>
     <t xml:space="preserve">iso2</t>
   </si>
@@ -65,6 +65,12 @@
     <t xml:space="preserve">Russian Federation</t>
   </si>
   <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
     <t xml:space="preserve">AU</t>
   </si>
   <si>
@@ -74,12 +80,6 @@
     <t xml:space="preserve">OCEANIA</t>
   </si>
   <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
     <t xml:space="preserve">FR</t>
   </si>
   <si>
@@ -92,36 +92,36 @@
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
     <t xml:space="preserve">AR</t>
   </si>
   <si>
     <t xml:space="preserve">Argentina</t>
   </si>
   <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
     <t xml:space="preserve">CL</t>
   </si>
   <si>
     <t xml:space="preserve">Chile</t>
   </si>
   <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
     <t xml:space="preserve">DE</t>
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
     <t xml:space="preserve">KR</t>
   </si>
   <si>
@@ -182,18 +182,18 @@
     <t xml:space="preserve">India</t>
   </si>
   <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
     <t xml:space="preserve">TW</t>
   </si>
   <si>
@@ -344,6 +344,12 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">KE</t>
   </si>
   <si>
@@ -362,6 +368,12 @@
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN</t>
   </si>
   <si>
@@ -398,24 +410,30 @@
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
     <t xml:space="preserve">HN</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">TJ</t>
   </si>
   <si>
@@ -452,12 +470,6 @@
     <t xml:space="preserve">Gabon</t>
   </si>
   <si>
-    <t xml:space="preserve">GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
     <t xml:space="preserve">JP</t>
   </si>
   <si>
@@ -470,12 +482,6 @@
     <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
     <t xml:space="preserve">SI</t>
   </si>
   <si>
@@ -512,12 +518,6 @@
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
     <t xml:space="preserve">MR</t>
   </si>
   <si>
@@ -635,6 +635,12 @@
     <t xml:space="preserve">Hungary</t>
   </si>
   <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">JM</t>
   </si>
   <si>
@@ -779,12 +785,6 @@
     <t xml:space="preserve">Iran (Islamic Republic of)</t>
   </si>
   <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
     <t xml:space="preserve">JO</t>
   </si>
   <si>
@@ -1539,6 +1539,12 @@
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3">
@@ -1962,21 +1968,21 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>109</v>
@@ -2021,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2063,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -2231,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -2522,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D47" t="n">
         <v>8</v>
@@ -2592,7 +2598,7 @@
         <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -2620,10 +2626,10 @@
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2634,7 +2640,7 @@
         <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -2665,7 +2671,7 @@
         <v>45</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2679,7 +2685,7 @@
         <v>45</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -2690,7 +2696,7 @@
         <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D59" t="n">
         <v>5</v>
@@ -2704,7 +2710,7 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
         <v>5</v>
@@ -2718,7 +2724,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" t="n">
         <v>5</v>
@@ -2732,7 +2738,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D62" t="n">
         <v>5</v>
@@ -2746,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -2760,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
@@ -2774,7 +2780,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -2788,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
@@ -2805,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -2816,10 +2822,10 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2830,10 +2836,10 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2858,7 +2864,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
         <v>4</v>
@@ -2872,7 +2878,7 @@
         <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
@@ -2886,7 +2892,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
@@ -2900,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
@@ -2914,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
         <v>4</v>
@@ -2928,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
         <v>4</v>
@@ -2942,10 +2948,10 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -2956,7 +2962,7 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D78" t="n">
         <v>3</v>
@@ -2970,7 +2976,7 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
@@ -3012,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -3082,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3264,7 +3270,7 @@
         <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -3278,7 +3284,7 @@
         <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -3292,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -3306,7 +3312,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3320,7 +3326,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3334,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3348,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3362,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3376,7 +3382,7 @@
         <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3390,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3404,10 +3410,10 @@
         <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -3432,7 +3438,7 @@
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -3446,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -3460,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -3474,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -3488,7 +3494,7 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -3516,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -3530,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -3544,7 +3550,7 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -3572,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3586,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -3600,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -3684,7 +3690,7 @@
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3754,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3824,7 +3830,7 @@
         <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3950,7 +3956,7 @@
         <v>306</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -3964,7 +3970,7 @@
         <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -4034,7 +4040,7 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -4286,7 +4292,7 @@
         <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -4426,7 +4432,7 @@
         <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -4510,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4622,7 +4628,7 @@
         <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4888,7 +4894,7 @@
         <v>440</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -4902,7 +4908,7 @@
         <v>442</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -4916,7 +4922,7 @@
         <v>444</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -4930,7 +4936,7 @@
         <v>446</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -4986,7 +4992,7 @@
         <v>454</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -5238,7 +5244,7 @@
         <v>490</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -5308,7 +5314,7 @@
         <v>500</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -5367,6 +5373,20 @@
         <v>38</v>
       </c>
       <c r="D250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>509</v>
+      </c>
+      <c r="B251" t="s">
+        <v>510</v>
+      </c>
+      <c r="C251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" t="n">
         <v>0</v>
       </c>
     </row>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -53,18 +53,18 @@
     <t xml:space="preserve">EUROPE</t>
   </si>
   <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
     <t xml:space="preserve">ES</t>
   </si>
   <si>
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
     <t xml:space="preserve">BR</t>
   </si>
   <si>
@@ -176,6 +176,12 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">IN</t>
   </si>
   <si>
@@ -188,12 +194,6 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
     <t xml:space="preserve">TW</t>
   </si>
   <si>
@@ -308,6 +308,12 @@
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
     <t xml:space="preserve">GN</t>
   </si>
   <si>
@@ -338,12 +344,6 @@
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
     <t xml:space="preserve">KZ</t>
   </si>
   <si>
@@ -362,6 +362,12 @@
     <t xml:space="preserve">Tanzania, United Republic of</t>
   </si>
   <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
     <t xml:space="preserve">IL</t>
   </si>
   <si>
@@ -398,18 +404,18 @@
     <t xml:space="preserve">Congo, Democratic Republic of the</t>
   </si>
   <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
     <t xml:space="preserve">FJ</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
     <t xml:space="preserve">GR</t>
   </si>
   <si>
@@ -422,6 +428,12 @@
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
@@ -464,24 +476,12 @@
     <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
     <t xml:space="preserve">JP</t>
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
     <t xml:space="preserve">SI</t>
   </si>
   <si>
@@ -671,6 +671,12 @@
     <t xml:space="preserve">Micronesia (Federated States of)</t>
   </si>
   <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
     <t xml:space="preserve">SG</t>
   </si>
   <si>
@@ -831,12 +837,6 @@
   </si>
   <si>
     <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
   </si>
   <si>
     <t xml:space="preserve">NI</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -2111,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2206,10 +2206,10 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -2220,10 +2220,10 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -2514,7 +2514,7 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
         <v>8</v>
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
         <v>8</v>
@@ -2542,10 +2542,10 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2556,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
         <v>7</v>
@@ -2570,7 +2570,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -2654,7 +2654,7 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
         <v>6</v>
@@ -2699,7 +2699,7 @@
         <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -2724,7 +2724,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D61" t="n">
         <v>5</v>
@@ -2752,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -2766,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
@@ -2780,7 +2780,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D68" t="n">
         <v>5</v>
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
@@ -2853,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -2867,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -2878,7 +2878,7 @@
         <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
@@ -2892,7 +2892,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
@@ -3354,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -3424,10 +3424,10 @@
         <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -3480,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -3494,7 +3494,7 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -3536,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3648,7 +3648,7 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>272</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -86,18 +86,18 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
     <t xml:space="preserve">CA</t>
   </si>
   <si>
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
     <t xml:space="preserve">AR</t>
   </si>
   <si>
@@ -170,18 +170,18 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">UA</t>
   </si>
   <si>
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
     <t xml:space="preserve">IN</t>
   </si>
   <si>
@@ -242,6 +242,12 @@
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -272,12 +278,6 @@
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
     <t xml:space="preserve">MW</t>
   </si>
   <si>
@@ -302,30 +302,36 @@
     <t xml:space="preserve">Côte d’Ivoire</t>
   </si>
   <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">GT</t>
   </si>
   <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
     <t xml:space="preserve">BG</t>
   </si>
   <si>
@@ -338,12 +344,6 @@
     <t xml:space="preserve">China</t>
   </si>
   <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
     <t xml:space="preserve">KZ</t>
   </si>
   <si>
@@ -362,12 +362,24 @@
     <t xml:space="preserve">Tanzania, United Republic of</t>
   </si>
   <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo, Democratic Republic of the</t>
+  </si>
+  <si>
     <t xml:space="preserve">CZ</t>
   </si>
   <si>
     <t xml:space="preserve">Czechia</t>
   </si>
   <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
     <t xml:space="preserve">IL</t>
   </si>
   <si>
@@ -380,6 +392,12 @@
     <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN</t>
   </si>
   <si>
@@ -398,24 +416,12 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo, Democratic Republic of the</t>
-  </si>
-  <si>
     <t xml:space="preserve">FJ</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
     <t xml:space="preserve">GR</t>
   </si>
   <si>
@@ -434,12 +440,6 @@
     <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
     <t xml:space="preserve">PG</t>
   </si>
   <si>
@@ -749,6 +749,12 @@
     <t xml:space="preserve">Congo</t>
   </si>
   <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
     <t xml:space="preserve">ET</t>
   </si>
   <si>
@@ -1101,12 +1107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
   </si>
   <si>
     <t xml:space="preserve">SV</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3">
@@ -1971,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -1985,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -2010,10 +2010,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -2024,10 +2024,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -2041,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2360,7 +2360,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
         <v>11</v>
@@ -2374,7 +2374,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D36" t="n">
         <v>11</v>
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
         <v>11</v>
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
         <v>11</v>
@@ -2416,10 +2416,10 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -2430,7 +2430,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
@@ -2514,10 +2514,10 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2531,7 +2531,7 @@
         <v>45</v>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2542,7 +2542,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -2556,10 +2556,10 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2570,7 +2570,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -2584,7 +2584,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
         <v>7</v>
@@ -2640,7 +2640,7 @@
         <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -2682,7 +2682,7 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
@@ -2710,10 +2710,10 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -2727,7 +2727,7 @@
         <v>45</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2738,10 +2738,10 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -2766,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
@@ -2780,7 +2780,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
@@ -3550,7 +3550,7 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -3648,7 +3648,7 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3676,7 +3676,7 @@
         <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>272</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>282</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3830,7 +3830,7 @@
         <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3942,7 +3942,7 @@
         <v>304</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>306</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -3984,10 +3984,10 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -3998,7 +3998,7 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -4026,7 +4026,7 @@
         <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>328</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>330</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>334</v>
       </c>
       <c r="C163" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>336</v>
       </c>
       <c r="C164" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>340</v>
       </c>
       <c r="C166" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>342</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>348</v>
       </c>
       <c r="C170" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>352</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>356</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>358</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>360</v>
       </c>
       <c r="C176" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>364</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -170,6 +170,12 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE</t>
   </si>
   <si>
@@ -182,12 +188,6 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">IT</t>
   </si>
   <si>
@@ -230,6 +230,12 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
     <t xml:space="preserve">MX</t>
   </si>
   <si>
@@ -242,12 +248,6 @@
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -302,6 +302,12 @@
     <t xml:space="preserve">Côte d’Ivoire</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
     <t xml:space="preserve">GN</t>
   </si>
   <si>
@@ -326,12 +332,6 @@
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
     <t xml:space="preserve">BG</t>
   </si>
   <si>
@@ -587,6 +587,12 @@
     <t xml:space="preserve">Barbados</t>
   </si>
   <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -707,6 +713,12 @@
     <t xml:space="preserve">Zambia</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">AD</t>
   </si>
   <si>
@@ -731,12 +743,6 @@
     <t xml:space="preserve">Bhutan</t>
   </si>
   <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t xml:space="preserve">BA</t>
   </si>
   <si>
@@ -863,6 +869,12 @@
     <t xml:space="preserve">Palestine, State of</t>
   </si>
   <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
     <t xml:space="preserve">PR</t>
   </si>
   <si>
@@ -965,12 +977,6 @@
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">AS</t>
   </si>
   <si>
@@ -1365,12 +1371,6 @@
   </si>
   <si>
     <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
     <t xml:space="preserve">PN</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
@@ -1971,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -2055,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -2097,7 +2097,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2125,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2192,7 +2192,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D23" t="n">
         <v>25</v>
@@ -2220,10 +2220,10 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -2251,7 +2251,7 @@
         <v>38</v>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -2332,7 +2332,7 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D33" t="n">
         <v>12</v>
@@ -2346,7 +2346,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>12</v>
@@ -2360,10 +2360,10 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -2500,7 +2500,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
         <v>9</v>
@@ -2514,7 +2514,7 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -2542,10 +2542,10 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -3158,7 +3158,7 @@
         <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
@@ -3186,7 +3186,7 @@
         <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -3214,7 +3214,7 @@
         <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -3256,7 +3256,7 @@
         <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -3424,7 +3424,7 @@
         <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -3438,10 +3438,10 @@
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -3480,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3676,7 +3676,7 @@
         <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>272</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>282</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3942,7 +3942,7 @@
         <v>304</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3998,10 +3998,10 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4012,10 +4012,10 @@
         <v>314</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4026,7 +4026,7 @@
         <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>322</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>330</v>
       </c>
       <c r="C161" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>332</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>336</v>
       </c>
       <c r="C164" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>338</v>
       </c>
       <c r="C165" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>342</v>
       </c>
       <c r="C167" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>346</v>
       </c>
       <c r="C169" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>350</v>
       </c>
       <c r="C171" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>356</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>358</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>360</v>
       </c>
       <c r="C176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>364</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>372</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>376</v>
       </c>
       <c r="C184" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>380</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>388</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>390</v>
       </c>
       <c r="C191" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>392</v>
       </c>
       <c r="C192" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>394</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>396</v>
       </c>
       <c r="C194" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>404</v>
       </c>
       <c r="C198" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>408</v>
       </c>
       <c r="C200" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>410</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>412</v>
       </c>
       <c r="C202" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>416</v>
       </c>
       <c r="C204" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>418</v>
       </c>
       <c r="C205" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>422</v>
       </c>
       <c r="C207" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>424</v>
       </c>
       <c r="C208" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>426</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>428</v>
       </c>
       <c r="C210" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>430</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>438</v>
       </c>
       <c r="C215" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>440</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>448</v>
       </c>
       <c r="C220" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>450</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -80,18 +80,18 @@
     <t xml:space="preserve">OCEANIA</t>
   </si>
   <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
     <t xml:space="preserve">FR</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
     <t xml:space="preserve">CA</t>
   </si>
   <si>
@@ -131,18 +131,18 @@
     <t xml:space="preserve">ASIA</t>
   </si>
   <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
     <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">BJ</t>
   </si>
   <si>
@@ -164,6 +164,12 @@
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">BE</t>
   </si>
   <si>
@@ -176,12 +182,6 @@
     <t xml:space="preserve">India</t>
   </si>
   <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
     <t xml:space="preserve">UA</t>
   </si>
   <si>
@@ -230,18 +230,18 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
     <t xml:space="preserve">PK</t>
   </si>
   <si>
@@ -278,6 +278,12 @@
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
     <t xml:space="preserve">MW</t>
   </si>
   <si>
@@ -302,36 +308,30 @@
     <t xml:space="preserve">Côte d’Ivoire</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
     <t xml:space="preserve">GN</t>
   </si>
   <si>
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">NZ</t>
   </si>
   <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
     <t xml:space="preserve">BG</t>
   </si>
   <si>
@@ -386,6 +386,12 @@
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
     <t xml:space="preserve">MZ</t>
   </si>
   <si>
@@ -434,12 +440,6 @@
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
     <t xml:space="preserve">PG</t>
   </si>
   <si>
@@ -500,6 +500,12 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
+    <t xml:space="preserve">AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
     <t xml:space="preserve">BY</t>
   </si>
   <si>
@@ -717,12 +723,6 @@
   </si>
   <si>
     <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andorra</t>
   </si>
   <si>
     <t xml:space="preserve">AZ</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
@@ -1943,7 +1943,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1996,10 +1996,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -2010,10 +2010,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -2111,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2181,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -2192,7 +2192,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
         <v>25</v>
@@ -2206,7 +2206,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D24" t="n">
         <v>25</v>
@@ -2332,10 +2332,10 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -2346,7 +2346,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
         <v>12</v>
@@ -2444,7 +2444,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -2486,10 +2486,10 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2500,7 +2500,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D45" t="n">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -2542,10 +2542,10 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2556,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D49" t="n">
         <v>8</v>
@@ -2696,7 +2696,7 @@
         <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D59" t="n">
         <v>6</v>
@@ -2710,7 +2710,7 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -2724,7 +2724,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -2755,7 +2755,7 @@
         <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -2766,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
@@ -2780,7 +2780,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -2976,7 +2976,7 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
@@ -2990,7 +2990,7 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D80" t="n">
         <v>3</v>
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
@@ -3018,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -3116,21 +3116,21 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
         <v>187</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>188</v>
-      </c>
-      <c r="C90" t="s">
-        <v>38</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
@@ -3144,7 +3144,7 @@
         <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
         <v>2</v>
@@ -3172,7 +3172,7 @@
         <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -3214,7 +3214,7 @@
         <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -3228,7 +3228,7 @@
         <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3256,7 +3256,7 @@
         <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -3270,7 +3270,7 @@
         <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3424,7 +3424,7 @@
         <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -3438,7 +3438,7 @@
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -3455,7 +3455,7 @@
         <v>45</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>338</v>
       </c>
       <c r="C165" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>394</v>
       </c>
       <c r="C193" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -80,16 +80,22 @@
     <t xml:space="preserve">OCEANIA</t>
   </si>
   <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
   </si>
   <si>
     <t xml:space="preserve">CA</t>
@@ -104,12 +110,6 @@
     <t xml:space="preserve">Argentina</t>
   </si>
   <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
     <t xml:space="preserve">NL</t>
   </si>
   <si>
@@ -164,18 +164,18 @@
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
     <t xml:space="preserve">IN</t>
   </si>
   <si>
@@ -248,6 +248,12 @@
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -278,12 +284,6 @@
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
     <t xml:space="preserve">MW</t>
   </si>
   <si>
@@ -452,6 +452,12 @@
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
     <t xml:space="preserve">UZ</t>
   </si>
   <si>
@@ -488,12 +494,6 @@
     <t xml:space="preserve">Slovenia</t>
   </si>
   <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZW</t>
   </si>
   <si>
@@ -635,6 +635,12 @@
     <t xml:space="preserve">French Guiana</t>
   </si>
   <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">HK</t>
   </si>
   <si>
@@ -785,12 +791,6 @@
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
     <t xml:space="preserve">IS</t>
   </si>
   <si>
@@ -857,6 +857,12 @@
     <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
+    <t xml:space="preserve">OM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
     <t xml:space="preserve">PW</t>
   </si>
   <si>
@@ -1359,12 +1365,6 @@
   </si>
   <si>
     <t xml:space="preserve">Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
   </si>
   <si>
     <t xml:space="preserve">PA</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4">
@@ -1971,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -1985,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1996,10 +1996,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -2010,10 +2010,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -2024,10 +2024,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -2038,10 +2038,10 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -2335,7 +2335,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -2374,7 +2374,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
         <v>11</v>
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D37" t="n">
         <v>11</v>
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D38" t="n">
         <v>11</v>
@@ -2416,7 +2416,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
         <v>11</v>
@@ -2430,10 +2430,10 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -2444,7 +2444,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -2850,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -2878,10 +2878,10 @@
         <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -2892,7 +2892,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
@@ -2920,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D75" t="n">
         <v>4</v>
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
         <v>4</v>
@@ -3270,7 +3270,7 @@
         <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -3438,7 +3438,7 @@
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3469,7 +3469,7 @@
         <v>45</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -3480,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -3494,7 +3494,7 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -3536,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>282</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>306</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -4026,10 +4026,10 @@
         <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4040,7 +4040,7 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>322</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>324</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>332</v>
       </c>
       <c r="C162" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>334</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>338</v>
       </c>
       <c r="C165" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>340</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>346</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>348</v>
       </c>
       <c r="C170" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>352</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>356</v>
       </c>
       <c r="C174" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>358</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>360</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>364</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>376</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>380</v>
       </c>
       <c r="C186" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>384</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>388</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>390</v>
       </c>
       <c r="C191" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>392</v>
       </c>
       <c r="C192" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>394</v>
       </c>
       <c r="C193" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>396</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>404</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>406</v>
       </c>
       <c r="C199" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>410</v>
       </c>
       <c r="C201" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>412</v>
       </c>
       <c r="C202" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>414</v>
       </c>
       <c r="C203" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>418</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>420</v>
       </c>
       <c r="C206" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>424</v>
       </c>
       <c r="C208" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>426</v>
       </c>
       <c r="C209" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>428</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>430</v>
       </c>
       <c r="C211" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>432</v>
       </c>
       <c r="C212" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>438</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>440</v>
       </c>
       <c r="C216" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>442</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>450</v>
       </c>
       <c r="C221" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -98,18 +98,18 @@
     <t xml:space="preserve">Chile</t>
   </si>
   <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
     <t xml:space="preserve">CA</t>
   </si>
   <si>
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
     <t xml:space="preserve">NL</t>
   </si>
   <si>
@@ -152,36 +152,36 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">PT</t>
   </si>
   <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
     <t xml:space="preserve">SE</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">UA</t>
   </si>
   <si>
@@ -206,16 +206,22 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
   </si>
   <si>
     <t xml:space="preserve">AT</t>
@@ -230,10 +236,10 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
     <t xml:space="preserve">GH</t>
@@ -242,12 +248,6 @@
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
     <t xml:space="preserve">GT</t>
   </si>
   <si>
@@ -314,6 +314,18 @@
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
@@ -326,10 +338,10 @@
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
     <t xml:space="preserve">BG</t>
@@ -344,12 +356,6 @@
     <t xml:space="preserve">China</t>
   </si>
   <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
     <t xml:space="preserve">KE</t>
   </si>
   <si>
@@ -398,18 +404,18 @@
     <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
     <t xml:space="preserve">SN</t>
   </si>
   <si>
     <t xml:space="preserve">Senegal</t>
   </si>
   <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
     <t xml:space="preserve">UG</t>
   </si>
   <si>
@@ -452,12 +458,6 @@
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
     <t xml:space="preserve">UZ</t>
   </si>
   <si>
@@ -524,6 +524,18 @@
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran (Islamic Republic of)</t>
+  </si>
+  <si>
     <t xml:space="preserve">MR</t>
   </si>
   <si>
@@ -641,12 +653,6 @@
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
-    <t xml:space="preserve">HK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
     <t xml:space="preserve">HU</t>
   </si>
   <si>
@@ -797,12 +803,6 @@
     <t xml:space="preserve">Iceland</t>
   </si>
   <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran (Islamic Republic of)</t>
-  </si>
-  <si>
     <t xml:space="preserve">JO</t>
   </si>
   <si>
@@ -875,6 +875,12 @@
     <t xml:space="preserve">Palestine, State of</t>
   </si>
   <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
     <t xml:space="preserve">PY</t>
   </si>
   <si>
@@ -1365,12 +1371,6 @@
   </si>
   <si>
     <t xml:space="preserve">Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
   </si>
   <si>
     <t xml:space="preserve">PN</t>
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -1943,7 +1943,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -2038,10 +2038,10 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -2052,10 +2052,10 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -2097,7 +2097,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -2178,10 +2178,10 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -2206,10 +2206,10 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -2276,7 +2276,7 @@
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
         <v>17</v>
@@ -2290,10 +2290,10 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -2304,10 +2304,10 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -2332,7 +2332,7 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
         <v>14</v>
@@ -2346,10 +2346,10 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -2360,7 +2360,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
         <v>12</v>
@@ -2377,7 +2377,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -2542,10 +2542,10 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2556,10 +2556,10 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -2570,10 +2570,10 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2584,10 +2584,10 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2612,7 +2612,7 @@
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D53" t="n">
         <v>7</v>
@@ -2643,7 +2643,7 @@
         <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2654,7 +2654,7 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
         <v>6</v>
@@ -2668,7 +2668,7 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
@@ -2682,7 +2682,7 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
@@ -2696,7 +2696,7 @@
         <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D59" t="n">
         <v>6</v>
@@ -2710,7 +2710,7 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -2724,7 +2724,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -2752,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -2769,7 +2769,7 @@
         <v>45</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -2780,7 +2780,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
         <v>5</v>
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
@@ -2850,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -3018,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -3116,7 +3116,7 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -3130,35 +3130,35 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s">
         <v>189</v>
-      </c>
-      <c r="B91" t="s">
-        <v>190</v>
       </c>
       <c r="C91" t="s">
         <v>38</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
         <v>191</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>192</v>
-      </c>
-      <c r="C92" t="s">
-        <v>9</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
@@ -3172,7 +3172,7 @@
         <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -3186,7 +3186,7 @@
         <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -3214,7 +3214,7 @@
         <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -3228,7 +3228,7 @@
         <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -3256,7 +3256,7 @@
         <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -3424,7 +3424,7 @@
         <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -3483,7 +3483,7 @@
         <v>45</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3494,7 +3494,7 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -3536,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3648,7 +3648,7 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>314</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -4040,10 +4040,10 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4054,7 +4054,7 @@
         <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>324</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>326</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>334</v>
       </c>
       <c r="C163" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>336</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>340</v>
       </c>
       <c r="C166" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>342</v>
       </c>
       <c r="C167" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>346</v>
       </c>
       <c r="C169" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>348</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>350</v>
       </c>
       <c r="C171" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>358</v>
       </c>
       <c r="C175" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>360</v>
       </c>
       <c r="C176" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>364</v>
       </c>
       <c r="C178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>372</v>
       </c>
       <c r="C182" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>376</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>380</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>384</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>390</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>392</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>394</v>
       </c>
       <c r="C193" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>396</v>
       </c>
       <c r="C194" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>406</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>408</v>
       </c>
       <c r="C200" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>412</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>414</v>
       </c>
       <c r="C203" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>416</v>
       </c>
       <c r="C204" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>420</v>
       </c>
       <c r="C206" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>422</v>
       </c>
       <c r="C207" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>426</v>
       </c>
       <c r="C209" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>428</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>430</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>432</v>
       </c>
       <c r="C212" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>434</v>
       </c>
       <c r="C213" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>440</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>442</v>
       </c>
       <c r="C217" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -4922,7 +4922,7 @@
         <v>444</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>452</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -53,6 +53,15 @@
     <t xml:space="preserve">EUROPE</t>
   </si>
   <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCEANIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">RU</t>
   </si>
   <si>
@@ -71,15 +80,6 @@
     <t xml:space="preserve">Brazil</t>
   </si>
   <si>
-    <t xml:space="preserve">AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCEANIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">FR</t>
   </si>
   <si>
@@ -254,6 +254,12 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -266,12 +272,6 @@
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZA</t>
   </si>
   <si>
@@ -290,6 +290,12 @@
     <t xml:space="preserve">Malawi</t>
   </si>
   <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
     <t xml:space="preserve">NE</t>
   </si>
   <si>
@@ -320,12 +326,6 @@
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
@@ -494,6 +494,12 @@
     <t xml:space="preserve">Slovenia</t>
   </si>
   <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZW</t>
   </si>
   <si>
@@ -576,12 +582,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
     <t xml:space="preserve">AQ</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
@@ -1940,52 +1940,52 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -2388,10 +2388,10 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D38" t="n">
         <v>11</v>
@@ -2416,7 +2416,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
         <v>11</v>
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -2486,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
@@ -2500,10 +2500,10 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -2542,7 +2542,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
@@ -2948,7 +2948,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D77" t="n">
         <v>4</v>
@@ -2962,10 +2962,10 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -2990,7 +2990,7 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D80" t="n">
         <v>3</v>
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
@@ -3018,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3438,7 +3438,7 @@
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>326</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>380</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>392</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>408</v>
       </c>
       <c r="C200" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>446</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>448</v>
       </c>
       <c r="C220" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>450</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>452</v>
       </c>
       <c r="C222" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>454</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>490</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>500</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -80,24 +80,24 @@
     <t xml:space="preserve">Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
     <t xml:space="preserve">FR</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
     <t xml:space="preserve">AR</t>
   </si>
   <si>
@@ -152,6 +152,12 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
     <t xml:space="preserve">BE</t>
   </si>
   <si>
@@ -170,12 +176,6 @@
     <t xml:space="preserve">India</t>
   </si>
   <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
     <t xml:space="preserve">SE</t>
   </si>
   <si>
@@ -332,6 +332,12 @@
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">CR</t>
   </si>
   <si>
@@ -344,12 +350,6 @@
     <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
     <t xml:space="preserve">CN</t>
   </si>
   <si>
@@ -530,127 +530,127 @@
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTARCTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Guiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">HK</t>
   </si>
   <si>
     <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran (Islamic Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Caledonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antarctica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTARCTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Guiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
   </si>
   <si>
     <t xml:space="preserve">HU</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5">
@@ -1971,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -1996,10 +1996,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -2024,10 +2024,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -2111,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2153,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
         <v>27</v>
@@ -2192,7 +2192,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D23" t="n">
         <v>27</v>
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -2251,7 +2251,7 @@
         <v>38</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -2570,7 +2570,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
         <v>8</v>
@@ -2584,7 +2584,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
@@ -2601,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,21 +3144,21 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
@@ -3172,7 +3172,7 @@
         <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -3228,7 +3228,7 @@
         <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -3256,7 +3256,7 @@
         <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -4208,7 +4208,7 @@
         <v>342</v>
       </c>
       <c r="C167" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -80,6 +80,12 @@
     <t xml:space="preserve">Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
     <t xml:space="preserve">CL</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
     <t xml:space="preserve">AR</t>
   </si>
   <si>
@@ -152,6 +152,18 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">PT</t>
   </si>
   <si>
@@ -164,18 +176,6 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
-    <t xml:space="preserve">DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">SE</t>
   </si>
   <si>
@@ -188,18 +188,18 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">TW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Taipei</t>
+  </si>
+  <si>
     <t xml:space="preserve">IT</t>
   </si>
   <si>
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
-    <t xml:space="preserve">TW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Taipei</t>
-  </si>
-  <si>
     <t xml:space="preserve">MG</t>
   </si>
   <si>
@@ -320,6 +320,12 @@
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
@@ -344,12 +350,6 @@
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
     <t xml:space="preserve">CN</t>
   </si>
   <si>
@@ -386,6 +386,12 @@
     <t xml:space="preserve">Gabon</t>
   </si>
   <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
     <t xml:space="preserve">IL</t>
   </si>
   <si>
@@ -434,12 +440,6 @@
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
-    <t xml:space="preserve">GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
     <t xml:space="preserve">HN</t>
   </si>
   <si>
@@ -605,6 +605,12 @@
     <t xml:space="preserve">Bolivia (Plurinational State of)</t>
   </si>
   <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -677,6 +683,12 @@
     <t xml:space="preserve">Liberia</t>
   </si>
   <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
     <t xml:space="preserve">MK</t>
   </si>
   <si>
@@ -713,6 +725,12 @@
     <t xml:space="preserve">Solomon Islands</t>
   </si>
   <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
     <t xml:space="preserve">TO</t>
   </si>
   <si>
@@ -731,6 +749,12 @@
     <t xml:space="preserve">Zambia</t>
   </si>
   <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
     <t xml:space="preserve">DZ</t>
   </si>
   <si>
@@ -755,12 +779,6 @@
     <t xml:space="preserve">Bhutan</t>
   </si>
   <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t xml:space="preserve">CG</t>
   </si>
   <si>
@@ -821,12 +839,6 @@
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
     <t xml:space="preserve">LU</t>
   </si>
   <si>
@@ -941,12 +953,6 @@
     <t xml:space="preserve">South Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">LK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
     <t xml:space="preserve">SJ</t>
   </si>
   <si>
@@ -981,12 +987,6 @@
   </si>
   <si>
     <t xml:space="preserve">Åland Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
   </si>
   <si>
     <t xml:space="preserve">AS</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4">
@@ -1996,10 +1996,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2024,10 +2024,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -2041,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -2111,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -2164,10 +2164,10 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -2181,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -2192,7 +2192,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
         <v>27</v>
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -2234,10 +2234,10 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -2248,10 +2248,10 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -2542,7 +2542,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -2556,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D49" t="n">
         <v>9</v>
@@ -2570,10 +2570,10 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -2584,7 +2584,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
@@ -2598,7 +2598,7 @@
         <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" t="n">
         <v>8</v>
@@ -2710,7 +2710,7 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -2724,7 +2724,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -2752,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -2766,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
@@ -2783,7 +2783,7 @@
         <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
         <v>5</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -3200,7 +3200,7 @@
         <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -3228,7 +3228,7 @@
         <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -3256,7 +3256,7 @@
         <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3424,7 +3424,7 @@
         <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -3438,7 +3438,7 @@
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -3480,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -3494,10 +3494,10 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3511,7 +3511,7 @@
         <v>12</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3522,10 +3522,10 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3536,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3676,7 +3676,7 @@
         <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>282</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3830,7 +3830,7 @@
         <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>306</v>
       </c>
       <c r="C149" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>314</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -4054,10 +4054,10 @@
         <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4068,7 +4068,7 @@
         <v>322</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -80,6 +80,12 @@
     <t xml:space="preserve">Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
     <t xml:space="preserve">FR</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
     <t xml:space="preserve">Chile</t>
   </si>
   <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
     <t xml:space="preserve">AR</t>
   </si>
   <si>
@@ -110,18 +110,18 @@
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
     <t xml:space="preserve">NL</t>
   </si>
   <si>
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
     <t xml:space="preserve">KR</t>
   </si>
   <si>
@@ -152,18 +152,18 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">PT</t>
   </si>
   <si>
@@ -188,18 +188,18 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
     <t xml:space="preserve">TW</t>
   </si>
   <si>
     <t xml:space="preserve">Chinese Taipei</t>
   </si>
   <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
     <t xml:space="preserve">MG</t>
   </si>
   <si>
@@ -254,6 +254,12 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE</t>
   </si>
   <si>
@@ -266,12 +272,6 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZA</t>
   </si>
   <si>
@@ -452,6 +452,12 @@
     <t xml:space="preserve">Papua New Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
     <t xml:space="preserve">TJ</t>
   </si>
   <si>
@@ -486,12 +492,6 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
   </si>
   <si>
     <t xml:space="preserve">VN</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
@@ -1996,10 +1996,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -2010,10 +2010,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -2041,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -2150,10 +2150,10 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2164,7 +2164,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
         <v>28</v>
@@ -2234,7 +2234,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
         <v>23</v>
@@ -2248,10 +2248,10 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
         <v>12</v>
@@ -2402,10 +2402,10 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -2416,7 +2416,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D39" t="n">
         <v>11</v>
@@ -2878,7 +2878,7 @@
         <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" t="n">
         <v>5</v>
@@ -2892,10 +2892,10 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
@@ -2920,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D75" t="n">
         <v>4</v>
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
         <v>4</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -110,18 +110,18 @@
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
     <t xml:space="preserve">DE</t>
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
     <t xml:space="preserve">KR</t>
   </si>
   <si>
@@ -170,18 +170,18 @@
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">BE</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
     <t xml:space="preserve">UA</t>
   </si>
   <si>
@@ -254,6 +254,12 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
     <t xml:space="preserve">NG</t>
   </si>
   <si>
@@ -266,12 +272,6 @@
     <t xml:space="preserve">Peru</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZA</t>
   </si>
   <si>
@@ -290,6 +290,12 @@
     <t xml:space="preserve">Malawi</t>
   </si>
   <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
     <t xml:space="preserve">NZ</t>
   </si>
   <si>
@@ -308,6 +314,12 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
@@ -326,24 +338,12 @@
     <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
     <t xml:space="preserve">CR</t>
   </si>
   <si>
@@ -476,6 +476,12 @@
     <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
   </si>
   <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
     <t xml:space="preserve">AM</t>
   </si>
   <si>
@@ -492,12 +498,6 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
     <t xml:space="preserve">ZW</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1999,7 +1999,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D37" t="n">
         <v>12</v>
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D38" t="n">
         <v>12</v>
@@ -2416,10 +2416,10 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -2486,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
@@ -2500,7 +2500,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -2514,10 +2514,10 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -2542,7 +2542,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -2556,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D49" t="n">
         <v>9</v>
@@ -2570,7 +2570,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
         <v>9</v>
@@ -2584,10 +2584,10 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2906,10 +2906,10 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -2920,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
         <v>4</v>
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
         <v>4</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -122,6 +122,12 @@
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
     <t xml:space="preserve">KR</t>
   </si>
   <si>
@@ -131,12 +137,6 @@
     <t xml:space="preserve">ASIA</t>
   </si>
   <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO</t>
   </si>
   <si>
@@ -152,18 +152,18 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
     <t xml:space="preserve">IN</t>
   </si>
   <si>
     <t xml:space="preserve">India</t>
   </si>
   <si>
-    <t xml:space="preserve">DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
     <t xml:space="preserve">PT</t>
   </si>
   <si>
@@ -284,6 +284,12 @@
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">MW</t>
   </si>
   <si>
@@ -332,12 +338,6 @@
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
@@ -530,6 +530,18 @@
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
     <t xml:space="preserve">IR</t>
   </si>
   <si>
@@ -651,18 +663,6 @@
   </si>
   <si>
     <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
   </si>
   <si>
     <t xml:space="preserve">IE</t>
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
@@ -2013,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -2094,21 +2094,21 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
       </c>
       <c r="D17" t="n">
         <v>43</v>
@@ -2150,10 +2150,10 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -2164,10 +2164,10 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -2248,7 +2248,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
         <v>23</v>
@@ -2346,7 +2346,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" t="n">
         <v>13</v>
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
         <v>12</v>
@@ -2458,7 +2458,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -2486,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
@@ -2500,7 +2500,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -2514,7 +2514,7 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
@@ -2528,10 +2528,10 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2542,7 +2542,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -2570,7 +2570,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
         <v>9</v>
@@ -2612,7 +2612,7 @@
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
         <v>7</v>
@@ -2724,7 +2724,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -2766,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -2948,7 +2948,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D77" t="n">
         <v>4</v>
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,35 +3144,35 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
         <v>191</v>
       </c>
-      <c r="B92" t="s">
-        <v>192</v>
-      </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
         <v>193</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>194</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -3186,7 +3186,7 @@
         <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -3214,7 +3214,7 @@
         <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -3228,7 +3228,7 @@
         <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -3256,7 +3256,7 @@
         <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -3270,7 +3270,7 @@
         <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3480,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -4068,7 +4068,7 @@
         <v>322</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>336</v>
       </c>
       <c r="C164" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>342</v>
       </c>
       <c r="C167" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>346</v>
       </c>
       <c r="C169" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>356</v>
       </c>
       <c r="C174" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>358</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>410</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>412</v>
       </c>
       <c r="C202" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>416</v>
       </c>
       <c r="C204" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>424</v>
       </c>
       <c r="C208" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>426</v>
       </c>
       <c r="C209" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -4922,7 +4922,7 @@
         <v>444</v>
       </c>
       <c r="C218" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>456</v>
       </c>
       <c r="C224" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>476</v>
       </c>
       <c r="C234" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>488</v>
       </c>
       <c r="C240" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>498</v>
       </c>
       <c r="C245" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>508</v>
       </c>
       <c r="C250" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -80,18 +80,18 @@
     <t xml:space="preserve">Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
     <t xml:space="preserve">CL</t>
   </si>
   <si>
@@ -152,18 +152,18 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">PT</t>
   </si>
   <si>
@@ -188,18 +188,18 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">TW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Taipei</t>
+  </si>
+  <si>
     <t xml:space="preserve">IT</t>
   </si>
   <si>
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
-    <t xml:space="preserve">TW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Taipei</t>
-  </si>
-  <si>
     <t xml:space="preserve">MG</t>
   </si>
   <si>
@@ -212,126 +212,126 @@
     <t xml:space="preserve">Cameroon</t>
   </si>
   <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d’Ivoire</t>
+  </si>
+  <si>
     <t xml:space="preserve">FI</t>
   </si>
   <si>
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d’Ivoire</t>
-  </si>
-  <si>
     <t xml:space="preserve">GN</t>
   </si>
   <si>
@@ -428,6 +428,12 @@
     <t xml:space="preserve">Uganda</t>
   </si>
   <si>
+    <t xml:space="preserve">VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -470,12 +476,6 @@
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
-    <t xml:space="preserve">VE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
     <t xml:space="preserve">VN</t>
   </si>
   <si>
@@ -524,6 +524,12 @@
     <t xml:space="preserve">Botswana</t>
   </si>
   <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
     <t xml:space="preserve">GE</t>
   </si>
   <si>
@@ -639,12 +645,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
   </si>
   <si>
     <t xml:space="preserve">CU</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
@@ -1996,10 +1996,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -2010,10 +2010,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -2150,10 +2150,10 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2164,7 +2164,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
         <v>30</v>
@@ -2234,10 +2234,10 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -2248,7 +2248,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
         <v>23</v>
@@ -2290,7 +2290,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
         <v>17</v>
@@ -2304,10 +2304,10 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -2332,10 +2332,10 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -2346,10 +2346,10 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2360,7 +2360,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>12</v>
@@ -2374,7 +2374,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D36" t="n">
         <v>12</v>
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
         <v>12</v>
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
         <v>12</v>
@@ -2416,10 +2416,10 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -2486,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
@@ -2542,7 +2542,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -2556,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
         <v>9</v>
@@ -2794,10 +2794,10 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
         <v>5</v>
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
@@ -2850,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -2892,7 +2892,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
         <v>5</v>
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -3116,7 +3116,7 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -3158,7 +3158,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
         <v>3</v>
@@ -3172,21 +3172,21 @@
         <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
         <v>195</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>196</v>
-      </c>
-      <c r="C94" t="s">
-        <v>40</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -3228,7 +3228,7 @@
         <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -3270,7 +3270,7 @@
         <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -4208,7 +4208,7 @@
         <v>342</v>
       </c>
       <c r="C167" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -164,6 +164,12 @@
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
     <t xml:space="preserve">PT</t>
   </si>
   <si>
@@ -176,30 +182,24 @@
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
     <t xml:space="preserve">UA</t>
   </si>
   <si>
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
     <t xml:space="preserve">TW</t>
   </si>
   <si>
     <t xml:space="preserve">Chinese Taipei</t>
   </si>
   <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
     <t xml:space="preserve">MG</t>
   </si>
   <si>
@@ -230,6 +230,18 @@
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
     <t xml:space="preserve">PK</t>
   </si>
   <si>
@@ -242,18 +254,6 @@
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
     <t xml:space="preserve">NG</t>
   </si>
   <si>
@@ -488,6 +488,12 @@
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
     <t xml:space="preserve">DO</t>
   </si>
   <si>
@@ -518,16 +524,22 @@
     <t xml:space="preserve">Belarus</t>
   </si>
   <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
     <t xml:space="preserve">BW</t>
   </si>
   <si>
     <t xml:space="preserve">Botswana</t>
   </si>
   <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
     <t xml:space="preserve">GE</t>
@@ -596,6 +608,12 @@
     <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">AQ</t>
   </si>
   <si>
@@ -617,12 +635,6 @@
     <t xml:space="preserve">Barbados</t>
   </si>
   <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t xml:space="preserve">BA</t>
   </si>
   <si>
@@ -641,18 +653,18 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
     <t xml:space="preserve">CU</t>
   </si>
   <si>
     <t xml:space="preserve">Cuba</t>
   </si>
   <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
     <t xml:space="preserve">GF</t>
   </si>
   <si>
@@ -713,6 +725,18 @@
     <t xml:space="preserve">Namibia</t>
   </si>
   <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
     <t xml:space="preserve">SG</t>
   </si>
   <si>
@@ -755,12 +779,6 @@
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">AZ</t>
   </si>
   <si>
@@ -785,12 +803,6 @@
     <t xml:space="preserve">Congo</t>
   </si>
   <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
     <t xml:space="preserve">ET</t>
   </si>
   <si>
@@ -857,6 +869,12 @@
     <t xml:space="preserve">Mongolia</t>
   </si>
   <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
     <t xml:space="preserve">MA</t>
   </si>
   <si>
@@ -905,12 +923,6 @@
     <t xml:space="preserve">Puerto Rico</t>
   </si>
   <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
     <t xml:space="preserve">BL</t>
   </si>
   <si>
@@ -935,12 +947,6 @@
     <t xml:space="preserve">Serbia</t>
   </si>
   <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
     <t xml:space="preserve">SO</t>
   </si>
   <si>
@@ -1329,12 +1335,6 @@
   </si>
   <si>
     <t xml:space="preserve">Monaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
   </si>
   <si>
     <t xml:space="preserve">MS</t>
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -2125,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2153,7 +2153,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -2234,7 +2234,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
         <v>24</v>
@@ -2248,10 +2248,10 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -2332,10 +2332,10 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -2346,10 +2346,10 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -2360,10 +2360,10 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -2374,7 +2374,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
         <v>12</v>
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
         <v>4</v>
@@ -2948,7 +2948,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
         <v>4</v>
@@ -2962,7 +2962,7 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -2976,10 +2976,10 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
@@ -3018,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -3116,7 +3116,7 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
@@ -3172,7 +3172,7 @@
         <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" t="n">
         <v>3</v>
@@ -3186,35 +3186,35 @@
         <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
         <v>197</v>
       </c>
-      <c r="B95" t="s">
-        <v>198</v>
-      </c>
       <c r="C95" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
         <v>199</v>
       </c>
-      <c r="B96" t="s">
-        <v>200</v>
-      </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -3222,13 +3222,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
         <v>201</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>202</v>
-      </c>
-      <c r="C97" t="s">
-        <v>9</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -3256,7 +3256,7 @@
         <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -3270,7 +3270,7 @@
         <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -3424,7 +3424,7 @@
         <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -3480,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -3508,7 +3508,7 @@
         <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -3522,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -3536,10 +3536,10 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -3550,10 +3550,10 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3567,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3578,10 +3578,10 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3648,7 +3648,7 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3676,7 +3676,7 @@
         <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>282</v>
       </c>
       <c r="C137" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3830,7 +3830,7 @@
         <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3942,7 +3942,7 @@
         <v>304</v>
       </c>
       <c r="C148" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>306</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>314</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -4068,10 +4068,10 @@
         <v>322</v>
       </c>
       <c r="C157" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4082,7 +4082,7 @@
         <v>324</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>326</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>328</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>336</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>338</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>342</v>
       </c>
       <c r="C167" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>348</v>
       </c>
       <c r="C170" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>350</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>352</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>356</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>360</v>
       </c>
       <c r="C176" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>364</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>380</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>384</v>
       </c>
       <c r="C188" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>388</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>392</v>
       </c>
       <c r="C192" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>394</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>396</v>
       </c>
       <c r="C194" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>404</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>408</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>410</v>
       </c>
       <c r="C201" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>414</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>416</v>
       </c>
       <c r="C204" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>418</v>
       </c>
       <c r="C205" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>422</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>424</v>
       </c>
       <c r="C208" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>428</v>
       </c>
       <c r="C210" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>430</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>432</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>434</v>
       </c>
       <c r="C213" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -206,6 +206,12 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">CM</t>
   </si>
   <si>
@@ -218,12 +224,6 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT</t>
   </si>
   <si>
@@ -236,6 +236,12 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -266,6 +272,12 @@
     <t xml:space="preserve">Peru</t>
   </si>
   <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
@@ -290,6 +302,12 @@
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">KZ</t>
   </si>
   <si>
@@ -302,12 +320,6 @@
     <t xml:space="preserve">Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
     <t xml:space="preserve">NE</t>
   </si>
   <si>
@@ -332,22 +344,16 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
   </si>
   <si>
     <t xml:space="preserve">CN</t>
@@ -356,10 +362,10 @@
     <t xml:space="preserve">China</t>
   </si>
   <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
   </si>
   <si>
     <t xml:space="preserve">TZ</t>
@@ -374,12 +380,6 @@
     <t xml:space="preserve">Congo, Democratic Republic of the</t>
   </si>
   <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
     <t xml:space="preserve">GA</t>
   </si>
   <si>
@@ -458,6 +458,12 @@
     <t xml:space="preserve">Papua New Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
     <t xml:space="preserve">SI</t>
   </si>
   <si>
@@ -518,6 +524,12 @@
     <t xml:space="preserve">Andorra</t>
   </si>
   <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
     <t xml:space="preserve">BY</t>
   </si>
   <si>
@@ -578,12 +590,6 @@
     <t xml:space="preserve">New Caledonia</t>
   </si>
   <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
     <t xml:space="preserve">SR</t>
   </si>
   <si>
@@ -621,12 +627,6 @@
   </si>
   <si>
     <t xml:space="preserve">ANTARCTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
     <t xml:space="preserve">BB</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -1971,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2097,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -2125,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2153,7 +2153,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2181,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -2276,10 +2276,10 @@
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2290,7 +2290,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n">
         <v>17</v>
@@ -2304,7 +2304,7 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>17</v>
@@ -2346,10 +2346,10 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2374,10 +2374,10 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D38" t="n">
         <v>12</v>
@@ -2416,10 +2416,10 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -2430,7 +2430,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>11</v>
@@ -2444,10 +2444,10 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -2458,10 +2458,10 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2486,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
@@ -2500,7 +2500,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -2514,7 +2514,7 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
@@ -2545,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2556,10 +2556,10 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2584,7 +2584,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D51" t="n">
         <v>9</v>
@@ -2598,10 +2598,10 @@
         <v>111</v>
       </c>
       <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="n">
         <v>9</v>
-      </c>
-      <c r="D52" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2612,10 +2612,10 @@
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2626,7 +2626,7 @@
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D54" t="n">
         <v>7</v>
@@ -2640,7 +2640,7 @@
         <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -2657,7 +2657,7 @@
         <v>45</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2668,7 +2668,7 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -2920,10 +2920,10 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -2948,7 +2948,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" t="n">
         <v>4</v>
@@ -2962,7 +2962,7 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -2976,7 +2976,7 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
@@ -2990,10 +2990,10 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3018,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3116,7 +3116,7 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
@@ -3158,7 +3158,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -3214,10 +3214,10 @@
         <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -3228,7 +3228,7 @@
         <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3236,13 +3236,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
         <v>203</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>204</v>
-      </c>
-      <c r="C98" t="s">
-        <v>40</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -4222,7 +4222,7 @@
         <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>384</v>
       </c>
       <c r="C188" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -62,18 +62,18 @@
     <t xml:space="preserve">OCEANIA</t>
   </si>
   <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
     <t xml:space="preserve">RU</t>
   </si>
   <si>
     <t xml:space="preserve">Russian Federation</t>
   </si>
   <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
     <t xml:space="preserve">BR</t>
   </si>
   <si>
@@ -224,18 +224,18 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
     <t xml:space="preserve">AT</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
     <t xml:space="preserve">NZ</t>
   </si>
   <si>
@@ -254,6 +254,12 @@
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
@@ -266,12 +272,6 @@
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
     <t xml:space="preserve">CR</t>
   </si>
   <si>
@@ -488,6 +488,12 @@
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
+    <t xml:space="preserve">AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
     <t xml:space="preserve">AM</t>
   </si>
   <si>
@@ -516,12 +522,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andorra</t>
   </si>
   <si>
     <t xml:space="preserve">BD</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -2111,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -2251,7 +2251,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -2318,10 +2318,10 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2332,7 +2332,7 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
         <v>14</v>
@@ -2388,10 +2388,10 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -2416,7 +2416,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
@@ -2962,7 +2962,7 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -2976,7 +2976,7 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
@@ -2990,7 +2990,7 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D80" t="n">
         <v>4</v>
@@ -3004,10 +3004,10 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -143,6 +143,12 @@
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">BJ</t>
   </si>
   <si>
@@ -152,12 +158,6 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
@@ -224,24 +224,30 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
     <t xml:space="preserve">GT</t>
   </si>
   <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
     <t xml:space="preserve">NZ</t>
   </si>
   <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -260,12 +266,6 @@
     <t xml:space="preserve">Peru</t>
   </si>
   <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
     <t xml:space="preserve">NG</t>
   </si>
   <si>
@@ -284,6 +284,12 @@
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZA</t>
   </si>
   <si>
@@ -326,12 +332,6 @@
     <t xml:space="preserve">Niger</t>
   </si>
   <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
@@ -368,12 +368,24 @@
     <t xml:space="preserve">Czechia</t>
   </si>
   <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
     <t xml:space="preserve">TZ</t>
   </si>
   <si>
     <t xml:space="preserve">Tanzania, United Republic of</t>
   </si>
   <si>
+    <t xml:space="preserve">VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD</t>
   </si>
   <si>
@@ -398,12 +410,6 @@
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
     <t xml:space="preserve">MZ</t>
   </si>
   <si>
@@ -428,18 +434,18 @@
     <t xml:space="preserve">Uganda</t>
   </si>
   <si>
-    <t xml:space="preserve">VE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">FJ</t>
   </si>
   <si>
@@ -488,136 +494,130 @@
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">AD</t>
   </si>
   <si>
     <t xml:space="preserve">Andorra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran (Islamic Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Caledonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
   </si>
   <si>
     <t xml:space="preserve">AQ</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -2136,24 +2136,24 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2251,7 +2251,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -2262,7 +2262,7 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
         <v>18</v>
@@ -2290,7 +2290,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
         <v>17</v>
@@ -2318,7 +2318,7 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
         <v>15</v>
@@ -2332,10 +2332,10 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -2360,7 +2360,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D35" t="n">
         <v>13</v>
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
         <v>13</v>
@@ -2402,10 +2402,10 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -2416,7 +2416,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
@@ -2458,7 +2458,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
         <v>11</v>
@@ -2472,10 +2472,10 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2500,7 +2500,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -2514,7 +2514,7 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
@@ -2542,7 +2542,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
@@ -2556,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
@@ -2570,7 +2570,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D50" t="n">
         <v>9</v>
@@ -2598,7 +2598,7 @@
         <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D52" t="n">
         <v>9</v>
@@ -2612,7 +2612,7 @@
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
@@ -2654,7 +2654,7 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D56" t="n">
         <v>7</v>
@@ -2668,10 +2668,10 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2682,10 +2682,10 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2696,7 +2696,7 @@
         <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D59" t="n">
         <v>6</v>
@@ -2710,7 +2710,7 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -2724,7 +2724,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -2738,7 +2738,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -2752,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -2766,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
@@ -2780,7 +2780,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D66" t="n">
         <v>6</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
         <v>5</v>
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
@@ -2850,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -2920,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
         <v>5</v>
@@ -2934,10 +2934,10 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -2976,7 +2976,7 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D81" t="n">
         <v>4</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3116,7 +3116,7 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
@@ -3158,7 +3158,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -3214,10 +3214,10 @@
         <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -3228,7 +3228,7 @@
         <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3438,7 +3438,7 @@
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -3480,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -3648,7 +3648,7 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3830,7 +3830,7 @@
         <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>314</v>
       </c>
       <c r="C153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -4264,7 +4264,7 @@
         <v>350</v>
       </c>
       <c r="C171" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>356</v>
       </c>
       <c r="C174" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>376</v>
       </c>
       <c r="C184" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>420</v>
       </c>
       <c r="C206" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>422</v>
       </c>
       <c r="C207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>430</v>
       </c>
       <c r="C211" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>458</v>
       </c>
       <c r="C225" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>462</v>
       </c>
       <c r="C227" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>478</v>
       </c>
       <c r="C235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>484</v>
       </c>
       <c r="C238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>486</v>
       </c>
       <c r="C239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>492</v>
       </c>
       <c r="C242" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>506</v>
       </c>
       <c r="C249" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -266,18 +266,18 @@
     <t xml:space="preserve">Peru</t>
   </si>
   <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">NG</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
@@ -440,6 +440,12 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
     <t xml:space="preserve">DO</t>
   </si>
   <si>
@@ -498,12 +504,6 @@
   </si>
   <si>
     <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
   </si>
   <si>
     <t xml:space="preserve">HU</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
@@ -1971,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -2416,7 +2416,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
@@ -2430,10 +2430,10 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" t="n">
         <v>5</v>
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
@@ -2850,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -2878,7 +2878,7 @@
         <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
         <v>5</v>
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
         <v>5</v>
@@ -2948,10 +2948,10 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -164,6 +164,12 @@
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
     <t xml:space="preserve">BE</t>
   </si>
   <si>
@@ -182,12 +188,6 @@
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
     <t xml:space="preserve">IT</t>
   </si>
   <si>
@@ -200,6 +200,12 @@
     <t xml:space="preserve">Chinese Taipei</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
     <t xml:space="preserve">MG</t>
   </si>
   <si>
@@ -212,12 +218,6 @@
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
     <t xml:space="preserve">MX</t>
   </si>
   <si>
@@ -434,6 +434,12 @@
     <t xml:space="preserve">Uganda</t>
   </si>
   <si>
+    <t xml:space="preserve">UZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -488,12 +494,6 @@
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
-    <t xml:space="preserve">UZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
     <t xml:space="preserve">VN</t>
   </si>
   <si>
@@ -542,6 +542,12 @@
     <t xml:space="preserve">Bolivia (Plurinational State of)</t>
   </si>
   <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
     <t xml:space="preserve">BW</t>
   </si>
   <si>
@@ -633,12 +639,6 @@
   </si>
   <si>
     <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -2041,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -2139,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -2153,7 +2153,7 @@
         <v>47</v>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -2181,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -2276,7 +2276,7 @@
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D29" t="n">
         <v>18</v>
@@ -2290,10 +2290,10 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2349,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -2808,10 +2808,10 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
         <v>5</v>
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
@@ -2850,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -2878,7 +2878,7 @@
         <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" t="n">
         <v>5</v>
@@ -2892,7 +2892,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
         <v>5</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
@@ -3158,7 +3158,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -3214,10 +3214,10 @@
         <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -3228,7 +3228,7 @@
         <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -3250,13 +3250,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s">
         <v>205</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>206</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -3270,7 +3270,7 @@
         <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -4222,7 +4222,7 @@
         <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>384</v>
       </c>
       <c r="C188" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -200,6 +200,12 @@
     <t xml:space="preserve">Chinese Taipei</t>
   </si>
   <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">CM</t>
   </si>
   <si>
@@ -212,12 +218,6 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
     <t xml:space="preserve">MX</t>
   </si>
   <si>
@@ -242,6 +242,18 @@
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
@@ -260,18 +272,6 @@
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
     <t xml:space="preserve">NG</t>
   </si>
   <si>
@@ -356,6 +356,12 @@
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania, United Republic of</t>
+  </si>
+  <si>
     <t xml:space="preserve">CN</t>
   </si>
   <si>
@@ -374,12 +380,6 @@
     <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t xml:space="preserve">VE</t>
   </si>
   <si>
@@ -470,6 +470,12 @@
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran (Islamic Republic of)</t>
+  </si>
+  <si>
     <t xml:space="preserve">PG</t>
   </si>
   <si>
@@ -572,12 +578,6 @@
     <t xml:space="preserve">Hong Kong</t>
   </si>
   <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran (Islamic Republic of)</t>
-  </si>
-  <si>
     <t xml:space="preserve">MR</t>
   </si>
   <si>
@@ -821,6 +821,12 @@
     <t xml:space="preserve">Greenland</t>
   </si>
   <si>
+    <t xml:space="preserve">GG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guernsey</t>
+  </si>
+  <si>
     <t xml:space="preserve">GY</t>
   </si>
   <si>
@@ -1197,12 +1203,6 @@
   </si>
   <si>
     <t xml:space="preserve">Guam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guernsey</t>
   </si>
   <si>
     <t xml:space="preserve">GW</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2041,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -2262,10 +2262,10 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -2290,7 +2290,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
         <v>18</v>
@@ -2360,10 +2360,10 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2374,10 +2374,10 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D37" t="n">
         <v>13</v>
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D38" t="n">
         <v>13</v>
@@ -2416,10 +2416,10 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2626,10 +2626,10 @@
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2640,7 +2640,7 @@
         <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -2654,7 +2654,7 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
         <v>7</v>
@@ -2668,7 +2668,7 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -2892,7 +2892,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D73" t="n">
         <v>5</v>
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -2948,7 +2948,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D77" t="n">
         <v>5</v>
@@ -2962,10 +2962,10 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -2990,7 +2990,7 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D80" t="n">
         <v>4</v>
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D81" t="n">
         <v>4</v>
@@ -3018,10 +3018,10 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -3116,7 +3116,7 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -3704,7 +3704,7 @@
         <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>272</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>282</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3830,7 +3830,7 @@
         <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>306</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -4054,7 +4054,7 @@
         <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -4082,10 +4082,10 @@
         <v>324</v>
       </c>
       <c r="C158" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4096,7 +4096,7 @@
         <v>326</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>328</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>330</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>338</v>
       </c>
       <c r="C165" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>340</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>346</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>350</v>
       </c>
       <c r="C171" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>352</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>358</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>364</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>372</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>376</v>
       </c>
       <c r="C184" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>380</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>384</v>
       </c>
       <c r="C188" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>388</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>390</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>394</v>
       </c>
       <c r="C193" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>396</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -236,18 +236,18 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">NZ</t>
   </si>
   <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
     <t xml:space="preserve">PE</t>
   </si>
   <si>
@@ -344,18 +344,18 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
     <t xml:space="preserve">TZ</t>
   </si>
   <si>
@@ -374,6 +374,12 @@
     <t xml:space="preserve">Czechia</t>
   </si>
   <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
     <t xml:space="preserve">MY</t>
   </si>
   <si>
@@ -404,12 +410,6 @@
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
     <t xml:space="preserve">MZ</t>
   </si>
   <si>
@@ -512,6 +512,12 @@
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
     <t xml:space="preserve">HU</t>
   </si>
   <si>
@@ -524,12 +530,24 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZW</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
+    <t xml:space="preserve">AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
     <t xml:space="preserve">BD</t>
   </si>
   <si>
@@ -572,12 +590,6 @@
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
-    <t xml:space="preserve">HK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
     <t xml:space="preserve">MR</t>
   </si>
   <si>
@@ -602,12 +614,6 @@
     <t xml:space="preserve">Trinidad and Tobago</t>
   </si>
   <si>
-    <t xml:space="preserve">UY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
     <t xml:space="preserve">VU</t>
   </si>
   <si>
@@ -618,12 +624,6 @@
   </si>
   <si>
     <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andorra</t>
   </si>
   <si>
     <t xml:space="preserve">AQ</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -1971,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -2321,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2335,7 +2335,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -2346,7 +2346,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>15</v>
@@ -2360,10 +2360,10 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -2615,7 +2615,7 @@
         <v>47</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -2668,7 +2668,7 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -2682,7 +2682,7 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -2696,10 +2696,10 @@
         <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -2724,7 +2724,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -2990,7 +2990,7 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D80" t="n">
         <v>4</v>
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
         <v>4</v>
@@ -3018,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
         <v>4</v>
@@ -3032,10 +3032,10 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -3046,10 +3046,10 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
@@ -3158,7 +3158,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D92" t="n">
         <v>3</v>
@@ -3172,7 +3172,7 @@
         <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D93" t="n">
         <v>3</v>
@@ -3186,7 +3186,7 @@
         <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -3214,7 +3214,7 @@
         <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" t="n">
         <v>3</v>
@@ -3228,10 +3228,10 @@
         <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -3242,7 +3242,7 @@
         <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -188,16 +188,22 @@
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">TW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Taipei</t>
+  </si>
+  <si>
     <t xml:space="preserve">IT</t>
   </si>
   <si>
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
-    <t xml:space="preserve">TW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Taipei</t>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
   </si>
   <si>
     <t xml:space="preserve">CH</t>
@@ -224,12 +230,6 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
     <t xml:space="preserve">GT</t>
   </si>
   <si>
@@ -356,6 +356,12 @@
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
     <t xml:space="preserve">TZ</t>
   </si>
   <si>
@@ -372,12 +378,6 @@
   </si>
   <si>
     <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
   </si>
   <si>
     <t xml:space="preserve">MY</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
@@ -1971,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
@@ -2041,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -2139,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -2234,10 +2234,10 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -2248,7 +2248,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
         <v>26</v>
@@ -2265,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -2276,10 +2276,10 @@
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -2304,10 +2304,10 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2318,10 +2318,10 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -2626,7 +2626,7 @@
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
         <v>8</v>
@@ -2640,10 +2640,10 @@
         <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2654,7 +2654,7 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D56" t="n">
         <v>7</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -206,48 +206,48 @@
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
     <t xml:space="preserve">GT</t>
   </si>
   <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CR</t>
   </si>
   <si>
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
     <t xml:space="preserve">PE</t>
   </si>
   <si>
@@ -386,6 +386,12 @@
     <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
+    <t xml:space="preserve">UZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">VE</t>
   </si>
   <si>
@@ -434,12 +440,6 @@
     <t xml:space="preserve">Uganda</t>
   </si>
   <si>
-    <t xml:space="preserve">UZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -500,6 +500,12 @@
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
     <t xml:space="preserve">VN</t>
   </si>
   <si>
@@ -528,12 +534,6 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
     <t xml:space="preserve">ZW</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -2153,7 +2153,7 @@
         <v>47</v>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -2276,10 +2276,10 @@
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2304,10 +2304,10 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -2318,7 +2318,7 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
         <v>17</v>
@@ -2346,10 +2346,10 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -2360,7 +2360,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
@@ -2377,7 +2377,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -2696,7 +2696,7 @@
         <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" t="n">
         <v>7</v>
@@ -2710,10 +2710,10 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -2738,7 +2738,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -2752,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -2780,7 +2780,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D66" t="n">
         <v>6</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
@@ -2962,7 +2962,7 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
         <v>5</v>
@@ -2976,10 +2976,10 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -2990,7 +2990,7 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D80" t="n">
         <v>4</v>
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D81" t="n">
         <v>4</v>
@@ -3018,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
         <v>4</v>
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D83" t="n">
         <v>4</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -137,18 +137,18 @@
     <t xml:space="preserve">ASIA</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">BJ</t>
   </si>
   <si>
@@ -158,16 +158,22 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
   </si>
   <si>
     <t xml:space="preserve">BE</t>
@@ -176,30 +182,24 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
     <t xml:space="preserve">PT</t>
   </si>
   <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
     <t xml:space="preserve">TW</t>
   </si>
   <si>
     <t xml:space="preserve">Chinese Taipei</t>
   </si>
   <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT</t>
   </si>
   <si>
@@ -224,84 +224,84 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZA</t>
   </si>
   <si>
     <t xml:space="preserve">South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EE</t>
   </si>
   <si>
@@ -344,6 +344,12 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
     <t xml:space="preserve">KE</t>
   </si>
   <si>
@@ -356,10 +362,10 @@
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
     <t xml:space="preserve">TZ</t>
@@ -380,12 +386,6 @@
     <t xml:space="preserve">Czechia</t>
   </si>
   <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
     <t xml:space="preserve">UZ</t>
   </si>
   <si>
@@ -428,6 +428,12 @@
     <t xml:space="preserve">Senegal</t>
   </si>
   <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
     <t xml:space="preserve">TH</t>
   </si>
   <si>
@@ -482,12 +488,6 @@
     <t xml:space="preserve">Papua New Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
     <t xml:space="preserve">SI</t>
   </si>
   <si>
@@ -689,6 +689,12 @@
     <t xml:space="preserve">Jamaica</t>
   </si>
   <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
     <t xml:space="preserve">LR</t>
   </si>
   <si>
@@ -843,12 +849,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
   </si>
   <si>
     <t xml:space="preserve">LB</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -2122,7 +2122,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
         <v>41</v>
@@ -2136,10 +2136,10 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2153,7 +2153,7 @@
         <v>47</v>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -2167,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2181,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -2234,10 +2234,10 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -2248,10 +2248,10 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -2265,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -2307,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2318,10 +2318,10 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2332,7 +2332,7 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
         <v>16</v>
@@ -2346,10 +2346,10 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
         <v>15</v>
-      </c>
-      <c r="D34" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -2374,10 +2374,10 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
         <v>13</v>
@@ -2430,7 +2430,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
         <v>12</v>
@@ -2444,10 +2444,10 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -2458,10 +2458,10 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D43" t="n">
         <v>11</v>
@@ -2486,10 +2486,10 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -2598,7 +2598,7 @@
         <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
         <v>9</v>
@@ -2626,10 +2626,10 @@
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2640,7 +2640,7 @@
         <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -2654,10 +2654,10 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -2668,7 +2668,7 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -2682,7 +2682,7 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D66" t="n">
         <v>6</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
@@ -2825,7 +2825,7 @@
         <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
@@ -2850,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -2878,7 +2878,7 @@
         <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
         <v>5</v>
@@ -2892,7 +2892,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
         <v>5</v>
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -2920,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
         <v>5</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -3438,7 +3438,7 @@
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -3508,7 +3508,7 @@
         <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -3522,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -3536,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -3564,7 +3564,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -3592,10 +3592,10 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3648,7 +3648,7 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -3676,7 +3676,7 @@
         <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>272</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -158,16 +158,22 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
     <t xml:space="preserve">UA</t>
   </si>
   <si>
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
     <t xml:space="preserve">SE</t>
@@ -176,18 +182,18 @@
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
     <t xml:space="preserve">BE</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
     <t xml:space="preserve">PT</t>
   </si>
   <si>
@@ -206,6 +212,12 @@
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">CM</t>
   </si>
   <si>
@@ -218,10 +230,10 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
     <t xml:space="preserve">GT</t>
@@ -230,10 +242,10 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
   </si>
   <si>
     <t xml:space="preserve">CR</t>
@@ -242,12 +254,6 @@
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
@@ -272,12 +278,6 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
     <t xml:space="preserve">NG</t>
   </si>
   <si>
@@ -290,6 +290,12 @@
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
@@ -314,12 +320,6 @@
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
     <t xml:space="preserve">MW</t>
   </si>
   <si>
@@ -404,6 +404,12 @@
     <t xml:space="preserve">Congo, Democratic Republic of the</t>
   </si>
   <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">GA</t>
   </si>
   <si>
@@ -458,12 +464,6 @@
     <t xml:space="preserve">Croatia</t>
   </si>
   <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
     <t xml:space="preserve">FJ</t>
   </si>
   <si>
@@ -476,6 +476,12 @@
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
     <t xml:space="preserve">IR</t>
   </si>
   <si>
@@ -518,18 +524,18 @@
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
     <t xml:space="preserve">HK</t>
   </si>
   <si>
     <t xml:space="preserve">Hong Kong</t>
   </si>
   <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
     <t xml:space="preserve">JP</t>
   </si>
   <si>
@@ -590,6 +596,12 @@
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">MR</t>
   </si>
   <si>
@@ -653,18 +665,18 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
     <t xml:space="preserve">GF</t>
   </si>
   <si>
@@ -677,12 +689,6 @@
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
     <t xml:space="preserve">JM</t>
   </si>
   <si>
@@ -807,12 +813,6 @@
   </si>
   <si>
     <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
     <t xml:space="preserve">FO</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -2041,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -2097,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -2111,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2125,7 +2125,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2167,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2181,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2248,10 +2248,10 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -2262,10 +2262,10 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -2276,10 +2276,10 @@
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -2290,10 +2290,10 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -2304,7 +2304,7 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
         <v>18</v>
@@ -2318,10 +2318,10 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2335,7 +2335,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -2349,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -2363,7 +2363,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -2374,10 +2374,10 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D37" t="n">
         <v>13</v>
@@ -2430,10 +2430,10 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
         <v>11</v>
@@ -2486,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
         <v>11</v>
@@ -2500,10 +2500,10 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -2514,7 +2514,7 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
@@ -2738,7 +2738,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -2752,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -2766,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D66" t="n">
         <v>6</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
@@ -2839,7 +2839,7 @@
         <v>47</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -2850,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D70" t="n">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -2920,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D75" t="n">
         <v>5</v>
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
         <v>5</v>
@@ -2962,7 +2962,7 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" t="n">
         <v>5</v>
@@ -2976,7 +2976,7 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D79" t="n">
         <v>5</v>
@@ -2990,10 +2990,10 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
         <v>4</v>
@@ -3018,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
         <v>4</v>
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
         <v>4</v>
@@ -3060,10 +3060,10 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -3116,7 +3116,7 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
@@ -3158,7 +3158,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D92" t="n">
         <v>3</v>
@@ -3172,7 +3172,7 @@
         <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D93" t="n">
         <v>3</v>
@@ -3186,7 +3186,7 @@
         <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -3214,7 +3214,7 @@
         <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" t="n">
         <v>3</v>
@@ -3228,7 +3228,7 @@
         <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
@@ -3242,10 +3242,10 @@
         <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -3256,21 +3256,21 @@
         <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
         <v>207</v>
       </c>
-      <c r="B100" t="s">
-        <v>208</v>
-      </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -3278,13 +3278,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
         <v>209</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>210</v>
-      </c>
-      <c r="C101" t="s">
-        <v>47</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -3424,7 +3424,7 @@
         <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -3480,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -3522,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -3536,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -3564,7 +3564,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -3606,10 +3606,10 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3634,7 +3634,7 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3648,7 +3648,7 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -4236,7 +4236,7 @@
         <v>346</v>
       </c>
       <c r="C169" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -170,24 +170,24 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">BG</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
     <t xml:space="preserve">BE</t>
   </si>
   <si>
@@ -278,6 +278,12 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">NG</t>
   </si>
   <si>
@@ -290,10 +296,10 @@
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
   </si>
   <si>
     <t xml:space="preserve">NP</t>
@@ -308,12 +314,6 @@
     <t xml:space="preserve">South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
     <t xml:space="preserve">GN</t>
   </si>
   <si>
@@ -404,6 +404,12 @@
     <t xml:space="preserve">Congo, Democratic Republic of the</t>
   </si>
   <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
     <t xml:space="preserve">DO</t>
   </si>
   <si>
@@ -428,6 +434,12 @@
     <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN</t>
   </si>
   <si>
@@ -458,12 +470,6 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
     <t xml:space="preserve">FJ</t>
   </si>
   <si>
@@ -488,12 +494,6 @@
     <t xml:space="preserve">Iran (Islamic Republic of)</t>
   </si>
   <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
     <t xml:space="preserve">SI</t>
   </si>
   <si>
@@ -731,12 +731,24 @@
     <t xml:space="preserve">Micronesia (Federated States of)</t>
   </si>
   <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Namibia</t>
   </si>
   <si>
+    <t xml:space="preserve">OM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
     <t xml:space="preserve">RW</t>
   </si>
   <si>
@@ -869,12 +881,6 @@
     <t xml:space="preserve">Marshall Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
     <t xml:space="preserve">ME</t>
   </si>
   <si>
@@ -891,12 +897,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
   </si>
   <si>
     <t xml:space="preserve">PW</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -2125,7 +2125,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -2167,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2181,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2279,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -2444,7 +2444,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D41" t="n">
         <v>12</v>
@@ -2458,7 +2458,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D42" t="n">
         <v>12</v>
@@ -2475,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2486,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D44" t="n">
         <v>11</v>
@@ -2500,7 +2500,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
         <v>11</v>
@@ -2514,10 +2514,10 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2738,7 +2738,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -2752,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -2766,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
@@ -2780,7 +2780,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
@@ -2850,10 +2850,10 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -2864,10 +2864,10 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -2878,7 +2878,7 @@
         <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D72" t="n">
         <v>5</v>
@@ -2892,7 +2892,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
         <v>5</v>
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -2920,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
         <v>5</v>
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D76" t="n">
         <v>5</v>
@@ -3494,7 +3494,7 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -3522,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -3536,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -3623,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3634,10 +3634,10 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3648,7 +3648,7 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3676,7 +3676,7 @@
         <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>282</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3830,7 +3830,7 @@
         <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -158,18 +158,18 @@
     <t xml:space="preserve">AFRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
     <t xml:space="preserve">IT</t>
   </si>
   <si>
@@ -188,18 +188,18 @@
     <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
     <t xml:space="preserve">BE</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
     <t xml:space="preserve">TW</t>
   </si>
   <si>
@@ -254,6 +254,18 @@
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
@@ -266,12 +278,6 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
     <t xml:space="preserve">PH</t>
   </si>
   <si>
@@ -302,12 +308,6 @@
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZA</t>
   </si>
   <si>
@@ -320,6 +320,12 @@
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
     <t xml:space="preserve">MW</t>
   </si>
   <si>
@@ -350,18 +356,18 @@
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
     <t xml:space="preserve">MY</t>
   </si>
   <si>
@@ -380,10 +386,10 @@
     <t xml:space="preserve">China</t>
   </si>
   <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
   </si>
   <si>
     <t xml:space="preserve">UZ</t>
@@ -398,18 +404,18 @@
     <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
   </si>
   <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD</t>
   </si>
   <si>
     <t xml:space="preserve">Congo, Democratic Republic of the</t>
   </si>
   <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
     <t xml:space="preserve">DO</t>
   </si>
   <si>
@@ -554,12 +560,6 @@
     <t xml:space="preserve">Andorra</t>
   </si>
   <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
     <t xml:space="preserve">BY</t>
   </si>
   <si>
@@ -608,6 +608,12 @@
     <t xml:space="preserve">Mauritania</t>
   </si>
   <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
     <t xml:space="preserve">NC</t>
   </si>
   <si>
@@ -653,6 +659,12 @@
     <t xml:space="preserve">Barbados</t>
   </si>
   <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -737,12 +749,6 @@
     <t xml:space="preserve">Mongolia</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
     <t xml:space="preserve">OM</t>
   </si>
   <si>
@@ -813,12 +819,6 @@
   </si>
   <si>
     <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
   </si>
   <si>
     <t xml:space="preserve">CG</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -2111,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -2125,7 +2125,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2139,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -2167,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -2181,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -2388,10 +2388,10 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2405,7 +2405,7 @@
         <v>40</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -2416,7 +2416,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D39" t="n">
         <v>13</v>
@@ -2444,10 +2444,10 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -2458,7 +2458,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
         <v>12</v>
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D43" t="n">
         <v>12</v>
@@ -2489,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -2500,7 +2500,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
         <v>11</v>
@@ -2573,7 +2573,7 @@
         <v>47</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2584,7 +2584,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D51" t="n">
         <v>9</v>
@@ -2612,7 +2612,7 @@
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D53" t="n">
         <v>9</v>
@@ -2640,7 +2640,7 @@
         <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -2654,7 +2654,7 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
@@ -2668,10 +2668,10 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -2682,7 +2682,7 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -2710,7 +2710,7 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
         <v>7</v>
@@ -2724,10 +2724,10 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2738,7 +2738,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -2752,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -2766,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
@@ -2780,7 +2780,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
@@ -2794,7 +2794,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D66" t="n">
         <v>6</v>
@@ -2808,7 +2808,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
@@ -2836,7 +2836,7 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
@@ -2850,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
@@ -2864,7 +2864,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D71" t="n">
         <v>6</v>
@@ -2881,7 +2881,7 @@
         <v>47</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -2892,7 +2892,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D73" t="n">
         <v>5</v>
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -2920,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" t="n">
         <v>5</v>
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
         <v>5</v>
@@ -2948,7 +2948,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D77" t="n">
         <v>5</v>
@@ -2976,7 +2976,7 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" t="n">
         <v>5</v>
@@ -2990,7 +2990,7 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
@@ -3004,10 +3004,10 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -3018,7 +3018,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
         <v>4</v>
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
         <v>4</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -3074,10 +3074,10 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -3088,7 +3088,7 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
@@ -3214,7 +3214,7 @@
         <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D96" t="n">
         <v>3</v>
@@ -3228,7 +3228,7 @@
         <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
@@ -3256,7 +3256,7 @@
         <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
         <v>3</v>
@@ -3270,10 +3270,10 @@
         <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -3284,7 +3284,7 @@
         <v>209</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
@@ -3292,13 +3292,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
         <v>211</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>212</v>
-      </c>
-      <c r="C102" t="s">
-        <v>9</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -3424,7 +3424,7 @@
         <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -3480,7 +3480,7 @@
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -3508,7 +3508,7 @@
         <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -3536,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -3564,7 +3564,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
@@ -3634,7 +3634,7 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D126" t="n">
         <v>2</v>
@@ -3648,10 +3648,10 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3676,7 +3676,7 @@
         <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -4236,7 +4236,7 @@
         <v>346</v>
       </c>
       <c r="C169" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -86,18 +86,18 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
     <t xml:space="preserve">AR</t>
   </si>
   <si>
@@ -122,33 +122,33 @@
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
     <t xml:space="preserve">PL</t>
   </si>
   <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Republic of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
     <t xml:space="preserve">BJ</t>
   </si>
   <si>
@@ -260,16 +260,22 @@
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
     <t xml:space="preserve">PK</t>
   </si>
   <si>
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -278,10 +284,10 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
     <t xml:space="preserve">KZ</t>
@@ -290,12 +296,6 @@
     <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
@@ -470,6 +470,12 @@
     <t xml:space="preserve">Uganda</t>
   </si>
   <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -512,12 +518,6 @@
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
-    <t xml:space="preserve">UY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
     <t xml:space="preserve">VN</t>
   </si>
   <si>
@@ -584,6 +584,12 @@
     <t xml:space="preserve">Botswana</t>
   </si>
   <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
     <t xml:space="preserve">KH</t>
   </si>
   <si>
@@ -602,6 +608,12 @@
     <t xml:space="preserve">Ireland</t>
   </si>
   <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
     <t xml:space="preserve">MR</t>
   </si>
   <si>
@@ -665,12 +677,6 @@
     <t xml:space="preserve">Bhutan</t>
   </si>
   <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
@@ -719,12 +725,6 @@
     <t xml:space="preserve">Liberia</t>
   </si>
   <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
     <t xml:space="preserve">MK</t>
   </si>
   <si>
@@ -821,6 +821,12 @@
     <t xml:space="preserve">Belize</t>
   </si>
   <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo Verde</t>
+  </si>
+  <si>
     <t xml:space="preserve">CG</t>
   </si>
   <si>
@@ -1065,12 +1071,6 @@
   </si>
   <si>
     <t xml:space="preserve">Brunei Darussalam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabo Verde</t>
   </si>
   <si>
     <t xml:space="preserve">KY</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2094,24 +2094,24 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2122,10 +2122,10 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -2139,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -2167,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2262,10 +2262,10 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" t="n">
         <v>15</v>
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D38" t="n">
         <v>14</v>
@@ -2416,10 +2416,10 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -2430,10 +2430,10 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -2444,7 +2444,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" t="n">
         <v>13</v>
@@ -2458,10 +2458,10 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
         <v>12</v>
@@ -2654,7 +2654,7 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
@@ -2682,7 +2682,7 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -2738,7 +2738,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -2864,7 +2864,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D71" t="n">
         <v>6</v>
@@ -2892,10 +2892,10 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -2920,7 +2920,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
         <v>5</v>
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
         <v>5</v>
@@ -2948,7 +2948,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D77" t="n">
         <v>5</v>
@@ -2962,7 +2962,7 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D78" t="n">
         <v>5</v>
@@ -2990,7 +2990,7 @@
         <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
@@ -3046,7 +3046,7 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
         <v>4</v>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -3158,7 +3158,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D92" t="n">
         <v>3</v>
@@ -3172,7 +3172,7 @@
         <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D93" t="n">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -3214,7 +3214,7 @@
         <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
         <v>3</v>
@@ -3228,7 +3228,7 @@
         <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
@@ -3242,7 +3242,7 @@
         <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D98" t="n">
         <v>3</v>
@@ -3256,7 +3256,7 @@
         <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
         <v>3</v>
@@ -3270,7 +3270,7 @@
         <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
         <v>3</v>
@@ -3284,10 +3284,10 @@
         <v>209</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -3298,21 +3298,21 @@
         <v>211</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s">
         <v>213</v>
       </c>
-      <c r="B103" t="s">
-        <v>214</v>
-      </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s">
         <v>215</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>216</v>
-      </c>
-      <c r="C104" t="s">
-        <v>40</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -3438,7 +3438,7 @@
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D114" t="n">
         <v>2</v>
@@ -3522,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -3536,7 +3536,7 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -3718,7 +3718,7 @@
         <v>272</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>282</v>
       </c>
       <c r="C137" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3830,7 +3830,7 @@
         <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>314</v>
       </c>
       <c r="C153" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -4054,7 +4054,7 @@
         <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -4068,7 +4068,7 @@
         <v>322</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -4096,10 +4096,10 @@
         <v>326</v>
       </c>
       <c r="C159" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4110,7 +4110,7 @@
         <v>328</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>330</v>
       </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>332</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>340</v>
       </c>
       <c r="C166" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>342</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>346</v>
       </c>
       <c r="C169" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>348</v>
       </c>
       <c r="C170" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>350</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>352</v>
       </c>
       <c r="C172" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>360</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>404</v>
       </c>
       <c r="C198" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>412</v>
       </c>
       <c r="C202" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>414</v>
       </c>
       <c r="C203" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>418</v>
       </c>
       <c r="C205" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>426</v>
       </c>
       <c r="C209" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>428</v>
       </c>
       <c r="C210" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -4922,7 +4922,7 @@
         <v>444</v>
       </c>
       <c r="C218" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>456</v>
       </c>
       <c r="C224" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>476</v>
       </c>
       <c r="C234" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>488</v>
       </c>
       <c r="C240" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>498</v>
       </c>
       <c r="C245" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>508</v>
       </c>
       <c r="C250" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -122,21 +122,21 @@
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">KR</t>
   </si>
   <si>
     <t xml:space="preserve">Korea, Republic of</t>
   </si>
   <si>
-    <t xml:space="preserve">ASIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO</t>
   </si>
   <si>
@@ -206,6 +206,12 @@
     <t xml:space="preserve">Chinese Taipei</t>
   </si>
   <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
     <t xml:space="preserve">AT</t>
   </si>
   <si>
@@ -218,6 +224,12 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CM</t>
   </si>
   <si>
@@ -230,12 +242,6 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
     <t xml:space="preserve">GT</t>
   </si>
   <si>
@@ -344,12 +350,6 @@
     <t xml:space="preserve">Côte d’Ivoire</t>
   </si>
   <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
     <t xml:space="preserve">IL</t>
   </si>
   <si>
@@ -380,6 +380,12 @@
     <t xml:space="preserve">Tanzania, United Republic of</t>
   </si>
   <si>
+    <t xml:space="preserve">VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CN</t>
   </si>
   <si>
@@ -396,12 +402,6 @@
   </si>
   <si>
     <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
   </si>
   <si>
     <t xml:space="preserve">BD</t>
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -2097,7 +2097,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -2111,7 +2111,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -2125,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -2265,7 +2265,7 @@
         <v>38</v>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -2279,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -2290,10 +2290,10 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -2304,10 +2304,10 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -2318,10 +2318,10 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -2332,10 +2332,10 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -2346,10 +2346,10 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -2377,7 +2377,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -2388,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
         <v>15</v>
@@ -2402,10 +2402,10 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -2416,7 +2416,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D39" t="n">
         <v>14</v>
@@ -2447,7 +2447,7 @@
         <v>38</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -2458,7 +2458,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D42" t="n">
         <v>13</v>
@@ -2472,10 +2472,10 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -2503,7 +2503,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -2514,7 +2514,7 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
         <v>11</v>
@@ -2531,7 +2531,7 @@
         <v>47</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -2587,7 +2587,7 @@
         <v>47</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2598,7 +2598,7 @@
         <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D52" t="n">
         <v>9</v>
@@ -2682,10 +2682,10 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -2696,7 +2696,7 @@
         <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D59" t="n">
         <v>7</v>
@@ -2724,7 +2724,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" t="n">
         <v>7</v>

--- a/exports/gbif-publishers-by-country.xlsx
+++ b/exports/gbif-publishers-by-country.xlsx
@@ -194,18 +194,18 @@
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
+    <t xml:space="preserve">TW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Taipei</t>
+  </si>
+  <si>
     <t xml:space="preserve">BE</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
-    <t xml:space="preserve">TW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Taipei</t>
-  </si>
-  <si>
     <t xml:space="preserve">FI</t>
   </si>
   <si>
@@ -218,18 +218,18 @@
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
     <t xml:space="preserve">MX</t>
   </si>
   <si>
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
     <t xml:space="preserve">CM</t>
   </si>
   <si>
@@ -242,6 +242,12 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">GT</t>
   </si>
   <si>
@@ -254,12 +260,6 @@
     <t xml:space="preserve">Peru</t>
   </si>
   <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
@@ -272,6 +272,12 @@
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
     <t xml:space="preserve">PK</t>
   </si>
   <si>
@@ -284,10 +290,10 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
     <t xml:space="preserve">NG</t>
@@ -296,12 +302,6 @@
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
@@ -542,6 +542,12 @@
     <t xml:space="preserve">Hong Kong</t>
   </si>
   <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">JP</t>
   </si>
   <si>
@@ -596,18 +602,18 @@
     <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
     <t xml:space="preserve">GE</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
     <t xml:space="preserve">LT</t>
   </si>
   <si>
@@ -689,12 +695,6 @@
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
     <t xml:space="preserve">GF</t>
   </si>
   <si>
@@ -761,6 +761,12 @@
     <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
     <t xml:space="preserve">SC</t>
   </si>
   <si>
@@ -951,12 +957,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
   </si>
   <si>
     <t xml:space="preserve">SO</t>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -2041,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -2097,7 +2097,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -2139,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -2248,10 +2248,10 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2262,7 +2262,7 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
         <v>29</v>
@@ -2304,10 +2304,10 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -2318,7 +2318,7 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
         <v>19</v>
@@ -2363,7 +2363,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -2391,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2461,7 +2461,7 @@
         <v>38</v>
       </c>
       <c r="D42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
         <v>13</v>
@@ -2486,10 +2486,10 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -3074,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D86" t="n">
         <v>4</v>
@@ -3088,10 +3088,10 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -3116,7 +3116,7 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
@@ -3172,7 +3172,7 @@
         <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D93" t="n">
         <v>3</v>
@@ -3186,7 +3186,7 @@
         <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -3200,7 +3200,7 @@
         <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -3228,7 +3228,7 @@
         <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
@@ -3256,7 +3256,7 @@
         <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D99" t="n">
         <v>3</v>
@@ -3270,7 +3270,7 @@
         <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
         <v>3</v>
@@ -3298,7 +3298,7 @@
         <v>211</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
         <v>3</v>
@@ -3312,10 +3312,10 @@
         <v>213</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -3326,7 +3326,7 @@
         <v>215</v>
       </c>
       <c r="C104" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -3334,13 +3334,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" t="s">
         <v>217</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>218</v>
-      </c>
-      <c r="C105" t="s">
-        <v>9</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -3564,7 +3564,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -3606,7 +3606,7 @@
         <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -3620,7 +3620,7 @@
         <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
@@ -3634,7 +3634,7 @@
         <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
         <v>2</v>
@@ -3648,7 +3648,7 @@
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D127" t="n">
         <v>2</v>
@@ -3662,10 +3662,10 @@
         <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3690,7 +3690,7 @@
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3760,7 +3760,7 @@
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>282</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3830,7 +3830,7 @@
         <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>314</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -4250,7 +4250,7 @@
         <v>348</v>
       </c>
       <c r="C170" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
